--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_9_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_9_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1905355.800095576</v>
+        <v>1893497.354413016</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7714541.967583085</v>
+        <v>7714541.967583084</v>
       </c>
     </row>
     <row r="8">
@@ -658,31 +658,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>202.2946864288972</v>
+        <v>64.1386326986768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>131.4480216276078</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>63.50968227731286</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>190.3453970742849</v>
+        <v>198.7050131246913</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>213.8342709234523</v>
+        <v>105.9408183449446</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>200.3360962888296</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>70.47828487625804</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>165.5971668681845</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>133.186967585368</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9943351364805</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>295.3513762553708</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>44.37620686732473</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>71.94630404249153</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>33.05833489647547</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>77.01815790238167</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.0445928406667</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.39662345093393</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>190.3366335981139</v>
       </c>
       <c r="T13" t="n">
-        <v>219.6881124923068</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2136147573082</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>187.9765883149688</v>
       </c>
     </row>
     <row r="14">
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>113.2554177942968</v>
       </c>
       <c r="F14" t="n">
-        <v>347.4804653608252</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9943351364805</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>295.3513762553708</v>
       </c>
       <c r="I14" t="n">
-        <v>44.37620686732473</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>110.8423503826538</v>
       </c>
       <c r="T14" t="n">
         <v>204.2358181515709</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0009807175441</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>50.3773477708237</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0583783734434</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.0445928406667</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.39662345093393</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>190.3366335981139</v>
       </c>
       <c r="T16" t="n">
-        <v>219.6881124923068</v>
+        <v>12.52747585349717</v>
       </c>
       <c r="U16" t="n">
         <v>286.2136147573082</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>110.8423503826538</v>
       </c>
       <c r="T17" t="n">
-        <v>204.2358181515712</v>
+        <v>204.2358181515709</v>
       </c>
       <c r="U17" t="n">
         <v>251.0009807175441</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.8357435389857</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>10.19222388734558</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,7 +2019,7 @@
         <v>166.0583783734434</v>
       </c>
       <c r="H19" t="n">
-        <v>145.0445928406667</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.6881124923068</v>
       </c>
       <c r="U19" t="n">
         <v>286.2136147573082</v>
@@ -2137,7 +2137,7 @@
         <v>204.2358181515709</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0009807175439</v>
+        <v>251.0009807175441</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0583783734434</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>24.12488793757981</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.39662345093393</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>190.3366335981139</v>
@@ -2295,7 +2295,7 @@
         <v>219.6881124923068</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2136147573082</v>
+        <v>268.9331584247023</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.0475669570741</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>99.7858199481022</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.0445928406667</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>97.3318925778876</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>190.3366335981139</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.6881124923068</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>66.47834692930816</v>
       </c>
       <c r="H28" t="n">
-        <v>145.0445928406667</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>97.3318925778876</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.05516678243318</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>56.98660813676965</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0583783734434</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>97.3318925778876</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>190.3366335981139</v>
       </c>
       <c r="T31" t="n">
-        <v>219.6881124923068</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2136147573082</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>86.52939908637045</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0583783734434</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>145.0445928406667</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>97.3318925778876</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>190.3366335981139</v>
       </c>
       <c r="T34" t="n">
         <v>219.6881124923068</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2136147573082</v>
+        <v>173.8370280316001</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>133.6144295478508</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206843</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3286,7 +3286,7 @@
         <v>295.3513762553708</v>
       </c>
       <c r="I35" t="n">
-        <v>44.37620686732475</v>
+        <v>44.37620686732473</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>204.2358181515709</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0009807175441</v>
+        <v>251.0009807175457</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>89.97207978458979</v>
       </c>
       <c r="I36" t="n">
-        <v>10.02905294793312</v>
+        <v>10.0290529479331</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0583783734434</v>
       </c>
       <c r="H37" t="n">
-        <v>145.0445928406668</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>97.33189257788761</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>190.3366335981139</v>
       </c>
       <c r="T37" t="n">
         <v>219.6881124923068</v>
@@ -3483,16 +3483,16 @@
         <v>286.2136147573082</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>217.4142816359961</v>
       </c>
       <c r="W37" t="n">
-        <v>108.6424519249994</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>295.3513762553708</v>
       </c>
       <c r="I38" t="n">
-        <v>44.37620686732475</v>
+        <v>44.37620686732473</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>251.0009807175441</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3602,7 +3602,7 @@
         <v>89.97207978458979</v>
       </c>
       <c r="I39" t="n">
-        <v>10.02905294793312</v>
+        <v>10.0290529479331</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>54.87023437291992</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.0445928406668</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>190.3366335981139</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.6881124923068</v>
       </c>
       <c r="U40" t="n">
         <v>286.2136147573082</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>17.62011882712232</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>125.1100250642045</v>
       </c>
       <c r="E41" t="n">
-        <v>223.7078958702974</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,7 +3757,7 @@
         <v>410.9943351364805</v>
       </c>
       <c r="H41" t="n">
-        <v>295.3513762553708</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3839,7 +3839,7 @@
         <v>89.97207978458979</v>
       </c>
       <c r="I42" t="n">
-        <v>10.02905294793312</v>
+        <v>10.0290529479331</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>54.87023437291957</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.39662345093394</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>190.3366335981139</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>138.1539006952393</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3985,16 +3985,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>410.9943351364805</v>
       </c>
       <c r="H44" t="n">
-        <v>295.3513762553708</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>110.8423503826538</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>204.2358181515709</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0009807175441</v>
+        <v>82.14731886006088</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>51.50205137522903</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0583783734434</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>145.0445928406668</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>47.89365051905934</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>190.3366335981139</v>
       </c>
       <c r="T46" t="n">
         <v>219.6881124923068</v>
@@ -4194,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>142.2320002002648</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710.516763498309</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C2" t="n">
-        <v>710.516763498309</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D2" t="n">
-        <v>467.067986854209</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E2" t="n">
-        <v>467.067986854209</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F2" t="n">
-        <v>223.6192102101089</v>
+        <v>308.7395386897029</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>194.4883050441255</v>
+        <v>731.6906242710602</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>557.2375949899332</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4415,16 +4415,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>327.2640844659515</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>194.4883050441255</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>194.4883050441255</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>194.4883050441255</v>
+        <v>899.9059612911283</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="G4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>518.2486856454962</v>
+        <v>753.253405673024</v>
       </c>
       <c r="C5" t="n">
-        <v>518.2486856454962</v>
+        <v>753.253405673024</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4600,19 +4600,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>761.6974622895962</v>
+        <v>753.253405673024</v>
       </c>
       <c r="V5" t="n">
-        <v>761.6974622895962</v>
+        <v>753.253405673024</v>
       </c>
       <c r="W5" t="n">
-        <v>518.2486856454962</v>
+        <v>753.253405673024</v>
       </c>
       <c r="X5" t="n">
-        <v>518.2486856454962</v>
+        <v>753.253405673024</v>
       </c>
       <c r="Y5" t="n">
-        <v>518.2486856454962</v>
+        <v>753.253405673024</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>418.6697947459187</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C6" t="n">
-        <v>418.6697947459187</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D6" t="n">
-        <v>418.6697947459187</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E6" t="n">
-        <v>418.6697947459187</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F6" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4652,46 +4652,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>418.6697947459187</v>
+        <v>857.0462278894801</v>
       </c>
       <c r="X6" t="n">
-        <v>418.6697947459187</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="Y6" t="n">
-        <v>418.6697947459187</v>
+        <v>649.1947276839472</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4749,28 +4749,28 @@
         <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>720.6083788665362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>720.6083788665362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>720.6083788665362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>477.1596022224361</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>233.7108255783361</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="U8" t="n">
-        <v>720.6083788665362</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="W8" t="n">
-        <v>720.6083788665362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>456.7918502977974</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C9" t="n">
-        <v>282.3388210166704</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D9" t="n">
-        <v>133.4044113554191</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E9" t="n">
-        <v>133.4044113554191</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F9" t="n">
-        <v>133.4044113554191</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4044113554191</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>621.8469951458151</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>892.8669687669412</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>664.6433505033302</v>
+        <v>796.7872899872175</v>
       </c>
       <c r="V9" t="n">
-        <v>664.6433505033302</v>
+        <v>561.6351817554748</v>
       </c>
       <c r="W9" t="n">
-        <v>664.6433505033302</v>
+        <v>318.1864051113748</v>
       </c>
       <c r="X9" t="n">
-        <v>456.7918502977974</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y9" t="n">
-        <v>456.7918502977974</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1936.062868452556</v>
+        <v>1588.743805303602</v>
       </c>
       <c r="C11" t="n">
-        <v>1567.100351512144</v>
+        <v>1219.78128836319</v>
       </c>
       <c r="D11" t="n">
-        <v>1208.834652905394</v>
+        <v>861.5155897564399</v>
       </c>
       <c r="E11" t="n">
-        <v>823.0464003071497</v>
+        <v>475.7273371581957</v>
       </c>
       <c r="F11" t="n">
-        <v>823.0464003071497</v>
+        <v>64.74143236858812</v>
       </c>
       <c r="G11" t="n">
-        <v>407.9006072399978</v>
+        <v>64.74143236858812</v>
       </c>
       <c r="H11" t="n">
-        <v>109.5658837497242</v>
+        <v>64.74143236858812</v>
       </c>
       <c r="I11" t="n">
         <v>64.74143236858812</v>
       </c>
       <c r="J11" t="n">
-        <v>247.5195506086511</v>
+        <v>247.5195506086507</v>
       </c>
       <c r="K11" t="n">
-        <v>572.1950877571667</v>
+        <v>572.195087757166</v>
       </c>
       <c r="L11" t="n">
         <v>1011.885563222718</v>
       </c>
       <c r="M11" t="n">
-        <v>1532.795373906942</v>
+        <v>1532.795373906941</v>
       </c>
       <c r="N11" t="n">
         <v>2066.747858301309</v>
@@ -5074,19 +5074,19 @@
         <v>3125.109648345917</v>
       </c>
       <c r="U11" t="n">
-        <v>3052.436613959562</v>
+        <v>3125.109648345917</v>
       </c>
       <c r="V11" t="n">
-        <v>3052.436613959562</v>
+        <v>3091.71739087473</v>
       </c>
       <c r="W11" t="n">
-        <v>2699.667958689448</v>
+        <v>2738.948735604616</v>
       </c>
       <c r="X11" t="n">
-        <v>2326.202200428368</v>
+        <v>2365.482977343536</v>
       </c>
       <c r="Y11" t="n">
-        <v>1936.062868452556</v>
+        <v>1975.343645367724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,7 +5120,7 @@
         <v>64.74143236858812</v>
       </c>
       <c r="J12" t="n">
-        <v>154.7849804799125</v>
+        <v>206.4197797621249</v>
       </c>
       <c r="K12" t="n">
         <v>438.4733701346345</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>587.4572319545422</v>
+        <v>678.2170380292711</v>
       </c>
       <c r="C13" t="n">
-        <v>587.4572319545422</v>
+        <v>509.2808551013642</v>
       </c>
       <c r="D13" t="n">
-        <v>437.3405925422064</v>
+        <v>359.1642156890284</v>
       </c>
       <c r="E13" t="n">
-        <v>289.4274989598133</v>
+        <v>211.2511221066353</v>
       </c>
       <c r="F13" t="n">
-        <v>142.537551461903</v>
+        <v>211.2511221066353</v>
       </c>
       <c r="G13" t="n">
-        <v>64.74143236858812</v>
+        <v>211.2511221066353</v>
       </c>
       <c r="H13" t="n">
         <v>64.74143236858812</v>
@@ -5223,28 +5223,28 @@
         <v>1893.55792523211</v>
       </c>
       <c r="R13" t="n">
-        <v>1802.248204574601</v>
+        <v>1893.55792523211</v>
       </c>
       <c r="S13" t="n">
-        <v>1802.248204574601</v>
+        <v>1701.298699375429</v>
       </c>
       <c r="T13" t="n">
-        <v>1580.341020238937</v>
+        <v>1701.298699375429</v>
       </c>
       <c r="U13" t="n">
-        <v>1580.341020238937</v>
+        <v>1412.19403800441</v>
       </c>
       <c r="V13" t="n">
-        <v>1325.65653203305</v>
+        <v>1157.509549798523</v>
       </c>
       <c r="W13" t="n">
-        <v>1036.23936199609</v>
+        <v>868.0923797615628</v>
       </c>
       <c r="X13" t="n">
-        <v>808.2498110980723</v>
+        <v>868.0923797615628</v>
       </c>
       <c r="Y13" t="n">
-        <v>587.4572319545422</v>
+        <v>678.2170380292711</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1901.26498490565</v>
+        <v>1204.703783319455</v>
       </c>
       <c r="C14" t="n">
-        <v>1532.302467965239</v>
+        <v>835.7412663790433</v>
       </c>
       <c r="D14" t="n">
-        <v>1174.036769358488</v>
+        <v>477.4755677722928</v>
       </c>
       <c r="E14" t="n">
-        <v>1174.036769358488</v>
+        <v>363.0761558588617</v>
       </c>
       <c r="F14" t="n">
-        <v>823.0464003071497</v>
+        <v>363.0761558588617</v>
       </c>
       <c r="G14" t="n">
-        <v>407.9006072399978</v>
+        <v>363.0761558588617</v>
       </c>
       <c r="H14" t="n">
-        <v>109.5658837497242</v>
+        <v>64.74143236858811</v>
       </c>
       <c r="I14" t="n">
-        <v>64.74143236858812</v>
+        <v>64.74143236858811</v>
       </c>
       <c r="J14" t="n">
-        <v>247.5195506086511</v>
+        <v>247.5195506086505</v>
       </c>
       <c r="K14" t="n">
-        <v>572.1950877571667</v>
+        <v>572.195087757166</v>
       </c>
       <c r="L14" t="n">
         <v>1011.885563222718</v>
       </c>
       <c r="M14" t="n">
-        <v>1532.795373906942</v>
+        <v>1532.795373906941</v>
       </c>
       <c r="N14" t="n">
-        <v>2066.74785830131</v>
+        <v>2066.747858301309</v>
       </c>
       <c r="O14" t="n">
-        <v>2557.608786957614</v>
+        <v>2557.608786957613</v>
       </c>
       <c r="P14" t="n">
-        <v>2942.046232237865</v>
+        <v>2942.046232237864</v>
       </c>
       <c r="Q14" t="n">
-        <v>3182.569996756417</v>
+        <v>3182.569996756416</v>
       </c>
       <c r="R14" t="n">
-        <v>3237.071618429406</v>
+        <v>3237.071618429405</v>
       </c>
       <c r="S14" t="n">
-        <v>3237.071618429406</v>
+        <v>3125.109648345916</v>
       </c>
       <c r="T14" t="n">
-        <v>3030.772812215698</v>
+        <v>2918.810842132209</v>
       </c>
       <c r="U14" t="n">
-        <v>3030.772812215698</v>
+        <v>2665.274497973073</v>
       </c>
       <c r="V14" t="n">
-        <v>3030.772812215698</v>
+        <v>2334.211610629503</v>
       </c>
       <c r="W14" t="n">
-        <v>2678.004156945584</v>
+        <v>1981.442955359388</v>
       </c>
       <c r="X14" t="n">
-        <v>2678.004156945584</v>
+        <v>1981.442955359388</v>
       </c>
       <c r="Y14" t="n">
-        <v>2287.864824969772</v>
+        <v>1591.303623383577</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>165.7526775529547</v>
       </c>
       <c r="H15" t="n">
-        <v>74.87178888165185</v>
+        <v>74.87178888165184</v>
       </c>
       <c r="I15" t="n">
-        <v>64.74143236858812</v>
+        <v>64.74143236858811</v>
       </c>
       <c r="J15" t="n">
-        <v>206.4197797621249</v>
+        <v>154.7849804799124</v>
       </c>
       <c r="K15" t="n">
-        <v>438.4733701346345</v>
+        <v>386.838570852422</v>
       </c>
       <c r="L15" t="n">
-        <v>796.820600737356</v>
+        <v>745.1858014551435</v>
       </c>
       <c r="M15" t="n">
-        <v>1234.351784876075</v>
+        <v>1182.716985593863</v>
       </c>
       <c r="N15" t="n">
-        <v>1697.871762460023</v>
+        <v>1646.23696317781</v>
       </c>
       <c r="O15" t="n">
-        <v>2099.682190772627</v>
+        <v>2048.047391490415</v>
       </c>
       <c r="P15" t="n">
-        <v>2402.837417483322</v>
+        <v>2351.202618201109</v>
       </c>
       <c r="Q15" t="n">
         <v>2555.569461782215</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>581.57041207626</v>
+        <v>673.7898989176897</v>
       </c>
       <c r="C16" t="n">
-        <v>412.6342291483531</v>
+        <v>673.7898989176897</v>
       </c>
       <c r="D16" t="n">
-        <v>262.5175897360174</v>
+        <v>673.7898989176897</v>
       </c>
       <c r="E16" t="n">
-        <v>211.6313798664985</v>
+        <v>525.8768053352966</v>
       </c>
       <c r="F16" t="n">
-        <v>64.74143236858812</v>
+        <v>378.9868578373863</v>
       </c>
       <c r="G16" t="n">
-        <v>64.74143236858812</v>
+        <v>211.2511221066353</v>
       </c>
       <c r="H16" t="n">
-        <v>64.74143236858812</v>
+        <v>64.74143236858811</v>
       </c>
       <c r="I16" t="n">
-        <v>64.74143236858812</v>
+        <v>64.74143236858811</v>
       </c>
       <c r="J16" t="n">
-        <v>107.5843847972614</v>
+        <v>107.5843847972613</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8253531861027</v>
+        <v>307.8253531861026</v>
       </c>
       <c r="L16" t="n">
-        <v>619.5912867742849</v>
+        <v>619.5912867742848</v>
       </c>
       <c r="M16" t="n">
-        <v>958.6938740280839</v>
+        <v>958.6938740280838</v>
       </c>
       <c r="N16" t="n">
         <v>1295.167976110391</v>
@@ -5460,28 +5460,28 @@
         <v>1893.55792523211</v>
       </c>
       <c r="R16" t="n">
-        <v>1802.248204574601</v>
+        <v>1893.55792523211</v>
       </c>
       <c r="S16" t="n">
-        <v>1609.98897871792</v>
+        <v>1701.298699375429</v>
       </c>
       <c r="T16" t="n">
-        <v>1388.081794382256</v>
+        <v>1688.644683361795</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.977133011238</v>
+        <v>1399.540021990777</v>
       </c>
       <c r="V16" t="n">
-        <v>1098.977133011238</v>
+        <v>1144.85553378489</v>
       </c>
       <c r="W16" t="n">
-        <v>809.5599629742774</v>
+        <v>855.4383637479294</v>
       </c>
       <c r="X16" t="n">
-        <v>581.57041207626</v>
+        <v>855.4383637479294</v>
       </c>
       <c r="Y16" t="n">
-        <v>581.57041207626</v>
+        <v>855.4383637479294</v>
       </c>
     </row>
     <row r="17">
@@ -5515,25 +5515,25 @@
         <v>95.6763455968287</v>
       </c>
       <c r="J17" t="n">
-        <v>278.4544638368911</v>
+        <v>445.8601128572441</v>
       </c>
       <c r="K17" t="n">
-        <v>924.0339594308597</v>
+        <v>770.5356500057596</v>
       </c>
       <c r="L17" t="n">
-        <v>1777.209037301358</v>
+        <v>1623.710727876257</v>
       </c>
       <c r="M17" t="n">
-        <v>2743.137246143485</v>
+        <v>2144.620538560481</v>
       </c>
       <c r="N17" t="n">
-        <v>3277.089730537853</v>
+        <v>3111.546478122713</v>
       </c>
       <c r="O17" t="n">
-        <v>4039.29519269539</v>
+        <v>3979.399586229134</v>
       </c>
       <c r="P17" t="n">
-        <v>4423.732637975641</v>
+        <v>4363.837031509386</v>
       </c>
       <c r="Q17" t="n">
         <v>4664.256402494193</v>
@@ -5606,13 +5606,13 @@
         <v>1213.651898822103</v>
       </c>
       <c r="N18" t="n">
-        <v>1728.806675688263</v>
+        <v>1677.171876406051</v>
       </c>
       <c r="O18" t="n">
-        <v>2130.617104000868</v>
+        <v>2078.982304718655</v>
       </c>
       <c r="P18" t="n">
-        <v>2433.772330711562</v>
+        <v>2382.13753142935</v>
       </c>
       <c r="Q18" t="n">
         <v>2586.504375010456</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>556.8117185635372</v>
+        <v>420.5972044692734</v>
       </c>
       <c r="C19" t="n">
-        <v>556.8117185635372</v>
+        <v>420.5972044692734</v>
       </c>
       <c r="D19" t="n">
-        <v>556.8117185635372</v>
+        <v>420.5972044692734</v>
       </c>
       <c r="E19" t="n">
-        <v>556.8117185635372</v>
+        <v>410.30202882549</v>
       </c>
       <c r="F19" t="n">
-        <v>409.9217710656268</v>
+        <v>263.4120813275796</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1860353348759</v>
+        <v>95.6763455968287</v>
       </c>
       <c r="H19" t="n">
         <v>95.6763455968287</v>
@@ -5703,22 +5703,22 @@
         <v>1924.49283846035</v>
       </c>
       <c r="T19" t="n">
-        <v>1924.49283846035</v>
+        <v>1702.585654124687</v>
       </c>
       <c r="U19" t="n">
-        <v>1635.388177089332</v>
+        <v>1413.480992753668</v>
       </c>
       <c r="V19" t="n">
-        <v>1380.703688883445</v>
+        <v>1158.796504547782</v>
       </c>
       <c r="W19" t="n">
-        <v>1091.286518846484</v>
+        <v>869.3793345108209</v>
       </c>
       <c r="X19" t="n">
-        <v>863.296967948467</v>
+        <v>641.3897836128035</v>
       </c>
       <c r="Y19" t="n">
-        <v>642.5043888049369</v>
+        <v>420.5972044692734</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2377.983686470404</v>
+        <v>2377.983686470403</v>
       </c>
       <c r="C20" t="n">
-        <v>2009.021169529993</v>
+        <v>2009.021169529992</v>
       </c>
       <c r="D20" t="n">
-        <v>1650.755470923242</v>
+        <v>1650.755470923241</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.967218324998</v>
+        <v>1264.967218324997</v>
       </c>
       <c r="F20" t="n">
-        <v>853.9813135353904</v>
+        <v>853.9813135353902</v>
       </c>
       <c r="G20" t="n">
-        <v>438.8355204682384</v>
+        <v>438.8355204682383</v>
       </c>
       <c r="H20" t="n">
         <v>140.5007969779648</v>
@@ -5755,25 +5755,25 @@
         <v>278.4544638368911</v>
       </c>
       <c r="K20" t="n">
-        <v>924.0339594308597</v>
+        <v>603.1300009854066</v>
       </c>
       <c r="L20" t="n">
-        <v>1777.209037301358</v>
+        <v>1456.305078855904</v>
       </c>
       <c r="M20" t="n">
-        <v>2702.548855868852</v>
+        <v>2422.233287698032</v>
       </c>
       <c r="N20" t="n">
-        <v>3236.50134026322</v>
+        <v>3389.159227260264</v>
       </c>
       <c r="O20" t="n">
-        <v>4104.354448369641</v>
+        <v>3880.020155916568</v>
       </c>
       <c r="P20" t="n">
-        <v>4488.791893649894</v>
+        <v>4264.45760119682</v>
       </c>
       <c r="Q20" t="n">
-        <v>4729.315658168445</v>
+        <v>4664.256402494193</v>
       </c>
       <c r="R20" t="n">
         <v>4783.817279841434</v>
@@ -5788,16 +5788,16 @@
         <v>4212.020159385102</v>
       </c>
       <c r="V20" t="n">
-        <v>3880.957272041532</v>
+        <v>3880.957272041531</v>
       </c>
       <c r="W20" t="n">
-        <v>3528.188616771418</v>
+        <v>3528.188616771416</v>
       </c>
       <c r="X20" t="n">
-        <v>3154.722858510338</v>
+        <v>3154.722858510337</v>
       </c>
       <c r="Y20" t="n">
-        <v>2764.583526534526</v>
+        <v>2764.583526534525</v>
       </c>
     </row>
     <row r="21">
@@ -5831,16 +5831,16 @@
         <v>95.6763455968287</v>
       </c>
       <c r="J21" t="n">
-        <v>185.719893708153</v>
+        <v>237.3546929903654</v>
       </c>
       <c r="K21" t="n">
-        <v>417.7734840806626</v>
+        <v>469.408283362875</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1207146833841</v>
+        <v>827.7555139655965</v>
       </c>
       <c r="M21" t="n">
-        <v>1213.651898822103</v>
+        <v>1265.286698104316</v>
       </c>
       <c r="N21" t="n">
         <v>1728.806675688263</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>585.8103879966316</v>
+        <v>245.7929850091644</v>
       </c>
       <c r="C22" t="n">
-        <v>585.8103879966316</v>
+        <v>245.7929850091644</v>
       </c>
       <c r="D22" t="n">
-        <v>435.6937485842958</v>
+        <v>95.6763455968287</v>
       </c>
       <c r="E22" t="n">
-        <v>287.7806550019027</v>
+        <v>95.6763455968287</v>
       </c>
       <c r="F22" t="n">
-        <v>287.7806550019027</v>
+        <v>95.6763455968287</v>
       </c>
       <c r="G22" t="n">
-        <v>120.0449192711517</v>
+        <v>95.6763455968287</v>
       </c>
       <c r="H22" t="n">
-        <v>120.0449192711517</v>
+        <v>95.6763455968287</v>
       </c>
       <c r="I22" t="n">
         <v>95.6763455968287</v>
@@ -5934,28 +5934,28 @@
         <v>1924.49283846035</v>
       </c>
       <c r="R22" t="n">
-        <v>1833.183117802841</v>
+        <v>1924.49283846035</v>
       </c>
       <c r="S22" t="n">
-        <v>1640.923891946161</v>
+        <v>1732.23361260367</v>
       </c>
       <c r="T22" t="n">
-        <v>1419.016707610497</v>
+        <v>1510.326428268006</v>
       </c>
       <c r="U22" t="n">
-        <v>1129.912046239479</v>
+        <v>1238.67677329356</v>
       </c>
       <c r="V22" t="n">
-        <v>875.2275580335921</v>
+        <v>983.9922850876726</v>
       </c>
       <c r="W22" t="n">
-        <v>585.8103879966316</v>
+        <v>694.5751150507119</v>
       </c>
       <c r="X22" t="n">
-        <v>585.8103879966316</v>
+        <v>466.5855641526945</v>
       </c>
       <c r="Y22" t="n">
-        <v>585.8103879966316</v>
+        <v>245.7929850091644</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1264.967218324997</v>
       </c>
       <c r="F23" t="n">
-        <v>853.9813135353893</v>
+        <v>853.9813135353902</v>
       </c>
       <c r="G23" t="n">
-        <v>438.8355204682375</v>
+        <v>438.8355204682383</v>
       </c>
       <c r="H23" t="n">
-        <v>140.5007969779644</v>
+        <v>140.5007969779647</v>
       </c>
       <c r="I23" t="n">
         <v>95.6763455968287</v>
@@ -5992,34 +5992,34 @@
         <v>278.4544638368911</v>
       </c>
       <c r="K23" t="n">
-        <v>924.0339594308597</v>
+        <v>603.1300009854066</v>
       </c>
       <c r="L23" t="n">
-        <v>1363.724434896412</v>
+        <v>1456.305078855904</v>
       </c>
       <c r="M23" t="n">
-        <v>1884.634245580635</v>
+        <v>2422.233287698032</v>
       </c>
       <c r="N23" t="n">
-        <v>2851.560185142867</v>
+        <v>3389.159227260264</v>
       </c>
       <c r="O23" t="n">
-        <v>3510.522630852316</v>
+        <v>4104.354448369641</v>
       </c>
       <c r="P23" t="n">
-        <v>4213.540797222336</v>
+        <v>4488.791893649894</v>
       </c>
       <c r="Q23" t="n">
-        <v>4664.256402494193</v>
+        <v>4729.315658168445</v>
       </c>
       <c r="R23" t="n">
         <v>4783.817279841434</v>
       </c>
       <c r="S23" t="n">
-        <v>4671.855309757945</v>
+        <v>4671.855309757946</v>
       </c>
       <c r="T23" t="n">
-        <v>4465.556503544237</v>
+        <v>4465.556503544238</v>
       </c>
       <c r="U23" t="n">
         <v>4212.020159385102</v>
@@ -6068,16 +6068,16 @@
         <v>95.6763455968287</v>
       </c>
       <c r="J24" t="n">
-        <v>185.719893708153</v>
+        <v>237.3546929903654</v>
       </c>
       <c r="K24" t="n">
-        <v>417.7734840806626</v>
+        <v>469.408283362875</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1207146833841</v>
+        <v>827.7555139655965</v>
       </c>
       <c r="M24" t="n">
-        <v>1213.651898822103</v>
+        <v>1265.286698104316</v>
       </c>
       <c r="N24" t="n">
         <v>1728.806675688263</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>488.4141719252363</v>
+        <v>641.3897836128035</v>
       </c>
       <c r="C25" t="n">
-        <v>488.4141719252363</v>
+        <v>540.596026089468</v>
       </c>
       <c r="D25" t="n">
-        <v>488.4141719252363</v>
+        <v>390.4793866771322</v>
       </c>
       <c r="E25" t="n">
-        <v>340.5010783428432</v>
+        <v>242.5662930947391</v>
       </c>
       <c r="F25" t="n">
-        <v>340.5010783428432</v>
+        <v>95.6763455968287</v>
       </c>
       <c r="G25" t="n">
-        <v>340.5010783428432</v>
+        <v>95.6763455968287</v>
       </c>
       <c r="H25" t="n">
-        <v>193.991388604796</v>
+        <v>95.6763455968287</v>
       </c>
       <c r="I25" t="n">
         <v>95.6763455968287</v>
@@ -6174,25 +6174,25 @@
         <v>1924.49283846035</v>
       </c>
       <c r="S25" t="n">
-        <v>1732.23361260367</v>
+        <v>1924.49283846035</v>
       </c>
       <c r="T25" t="n">
-        <v>1510.326428268006</v>
+        <v>1702.585654124687</v>
       </c>
       <c r="U25" t="n">
-        <v>1221.221766896988</v>
+        <v>1413.480992753668</v>
       </c>
       <c r="V25" t="n">
-        <v>966.5372786911011</v>
+        <v>1158.796504547782</v>
       </c>
       <c r="W25" t="n">
-        <v>966.5372786911011</v>
+        <v>869.3793345108209</v>
       </c>
       <c r="X25" t="n">
-        <v>738.5477277930837</v>
+        <v>641.3897836128035</v>
       </c>
       <c r="Y25" t="n">
-        <v>517.7551486495536</v>
+        <v>641.3897836128035</v>
       </c>
     </row>
     <row r="26">
@@ -6217,7 +6217,7 @@
         <v>853.9813135353902</v>
       </c>
       <c r="G26" t="n">
-        <v>438.8355204682384</v>
+        <v>438.8355204682383</v>
       </c>
       <c r="H26" t="n">
         <v>140.5007969779648</v>
@@ -6226,25 +6226,25 @@
         <v>95.6763455968287</v>
       </c>
       <c r="J26" t="n">
-        <v>416.7113552491102</v>
+        <v>278.4544638368911</v>
       </c>
       <c r="K26" t="n">
-        <v>1062.290850843079</v>
+        <v>603.1300009854066</v>
       </c>
       <c r="L26" t="n">
-        <v>1915.465928713577</v>
+        <v>1456.305078855904</v>
       </c>
       <c r="M26" t="n">
-        <v>2436.3757393978</v>
+        <v>2422.233287698032</v>
       </c>
       <c r="N26" t="n">
-        <v>3403.301678960032</v>
+        <v>3389.159227260264</v>
       </c>
       <c r="O26" t="n">
-        <v>3894.162607616336</v>
+        <v>4104.354448369641</v>
       </c>
       <c r="P26" t="n">
-        <v>4278.600052896588</v>
+        <v>4488.791893649894</v>
       </c>
       <c r="Q26" t="n">
         <v>4729.315658168445</v>
@@ -6305,13 +6305,13 @@
         <v>95.6763455968287</v>
       </c>
       <c r="J27" t="n">
-        <v>185.719893708153</v>
+        <v>237.3546929903654</v>
       </c>
       <c r="K27" t="n">
-        <v>417.7734840806626</v>
+        <v>469.408283362875</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1207146833841</v>
+        <v>827.7555139655965</v>
       </c>
       <c r="M27" t="n">
         <v>1265.286698104316</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>657.3503548531432</v>
+        <v>460.8559239746971</v>
       </c>
       <c r="C28" t="n">
-        <v>488.4141719252363</v>
+        <v>460.8559239746971</v>
       </c>
       <c r="D28" t="n">
-        <v>488.4141719252363</v>
+        <v>310.7392845623614</v>
       </c>
       <c r="E28" t="n">
-        <v>340.5010783428432</v>
+        <v>162.8261909799683</v>
       </c>
       <c r="F28" t="n">
-        <v>340.5010783428432</v>
+        <v>162.8261909799683</v>
       </c>
       <c r="G28" t="n">
-        <v>340.5010783428432</v>
+        <v>95.6763455968287</v>
       </c>
       <c r="H28" t="n">
-        <v>193.991388604796</v>
+        <v>95.6763455968287</v>
       </c>
       <c r="I28" t="n">
         <v>95.6763455968287</v>
@@ -6429,7 +6429,7 @@
         <v>863.296967948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>838.998819683383</v>
+        <v>642.5043888049369</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1264.967218324997</v>
       </c>
       <c r="F29" t="n">
-        <v>853.9813135353893</v>
+        <v>853.9813135353902</v>
       </c>
       <c r="G29" t="n">
-        <v>438.8355204682375</v>
+        <v>438.8355204682383</v>
       </c>
       <c r="H29" t="n">
-        <v>140.5007969779645</v>
+        <v>140.5007969779648</v>
       </c>
       <c r="I29" t="n">
         <v>95.6763455968287</v>
@@ -6466,16 +6466,16 @@
         <v>278.4544638368911</v>
       </c>
       <c r="K29" t="n">
-        <v>827.46429343848</v>
+        <v>603.1300009854066</v>
       </c>
       <c r="L29" t="n">
-        <v>1680.639371308978</v>
+        <v>1456.305078855904</v>
       </c>
       <c r="M29" t="n">
-        <v>2646.567580151106</v>
+        <v>2269.575400700988</v>
       </c>
       <c r="N29" t="n">
-        <v>3613.493519713338</v>
+        <v>3236.50134026322</v>
       </c>
       <c r="O29" t="n">
         <v>4104.354448369641</v>
@@ -6490,10 +6490,10 @@
         <v>4783.817279841434</v>
       </c>
       <c r="S29" t="n">
-        <v>4671.855309757945</v>
+        <v>4671.855309757946</v>
       </c>
       <c r="T29" t="n">
-        <v>4465.556503544237</v>
+        <v>4465.556503544238</v>
       </c>
       <c r="U29" t="n">
         <v>4212.020159385102</v>
@@ -6542,16 +6542,16 @@
         <v>95.6763455968287</v>
       </c>
       <c r="J30" t="n">
-        <v>185.719893708153</v>
+        <v>237.3546929903654</v>
       </c>
       <c r="K30" t="n">
-        <v>417.7734840806626</v>
+        <v>469.408283362875</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1207146833841</v>
+        <v>827.7555139655965</v>
       </c>
       <c r="M30" t="n">
-        <v>1213.651898822103</v>
+        <v>1265.286698104316</v>
       </c>
       <c r="N30" t="n">
         <v>1728.806675688263</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>361.7271243355469</v>
+        <v>450.2451629482563</v>
       </c>
       <c r="C31" t="n">
-        <v>361.7271243355469</v>
+        <v>450.2451629482563</v>
       </c>
       <c r="D31" t="n">
-        <v>361.7271243355469</v>
+        <v>300.1285235359205</v>
       </c>
       <c r="E31" t="n">
-        <v>361.7271243355469</v>
+        <v>242.5662930947391</v>
       </c>
       <c r="F31" t="n">
-        <v>361.7271243355469</v>
+        <v>95.6763455968287</v>
       </c>
       <c r="G31" t="n">
-        <v>193.991388604796</v>
+        <v>95.6763455968287</v>
       </c>
       <c r="H31" t="n">
-        <v>193.991388604796</v>
+        <v>95.6763455968287</v>
       </c>
       <c r="I31" t="n">
         <v>95.6763455968287</v>
@@ -6651,22 +6651,22 @@
         <v>1732.23361260367</v>
       </c>
       <c r="T31" t="n">
-        <v>1510.326428268006</v>
+        <v>1732.23361260367</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.221766896988</v>
+        <v>1443.128951232651</v>
       </c>
       <c r="V31" t="n">
-        <v>966.5372786911011</v>
+        <v>1188.444463026764</v>
       </c>
       <c r="W31" t="n">
-        <v>677.1201086541405</v>
+        <v>899.0272929898038</v>
       </c>
       <c r="X31" t="n">
-        <v>449.1305577561232</v>
+        <v>671.0377420917864</v>
       </c>
       <c r="Y31" t="n">
-        <v>361.7271243355469</v>
+        <v>450.2451629482563</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1264.967218324997</v>
       </c>
       <c r="F32" t="n">
-        <v>853.9813135353893</v>
+        <v>853.9813135353902</v>
       </c>
       <c r="G32" t="n">
-        <v>438.8355204682375</v>
+        <v>438.8355204682383</v>
       </c>
       <c r="H32" t="n">
-        <v>140.5007969779645</v>
+        <v>140.5007969779648</v>
       </c>
       <c r="I32" t="n">
         <v>95.6763455968287</v>
       </c>
       <c r="J32" t="n">
-        <v>445.8601128572441</v>
+        <v>278.4544638368911</v>
       </c>
       <c r="K32" t="n">
-        <v>770.5356500057596</v>
+        <v>603.1300009854066</v>
       </c>
       <c r="L32" t="n">
-        <v>1303.64719185886</v>
+        <v>1456.305078855904</v>
       </c>
       <c r="M32" t="n">
-        <v>2269.575400700988</v>
+        <v>2422.233287698032</v>
       </c>
       <c r="N32" t="n">
-        <v>3236.50134026322</v>
+        <v>3389.159227260264</v>
       </c>
       <c r="O32" t="n">
-        <v>4104.354448369641</v>
+        <v>4039.29519269539</v>
       </c>
       <c r="P32" t="n">
-        <v>4488.791893649894</v>
+        <v>4423.732637975641</v>
       </c>
       <c r="Q32" t="n">
-        <v>4729.315658168445</v>
+        <v>4664.256402494193</v>
       </c>
       <c r="R32" t="n">
         <v>4783.817279841434</v>
       </c>
       <c r="S32" t="n">
-        <v>4671.855309757945</v>
+        <v>4671.855309757946</v>
       </c>
       <c r="T32" t="n">
-        <v>4465.556503544237</v>
+        <v>4465.556503544238</v>
       </c>
       <c r="U32" t="n">
         <v>4212.020159385102</v>
@@ -6779,19 +6779,19 @@
         <v>95.6763455968287</v>
       </c>
       <c r="J33" t="n">
-        <v>185.719893708153</v>
+        <v>237.3546929903654</v>
       </c>
       <c r="K33" t="n">
-        <v>417.7734840806626</v>
+        <v>469.408283362875</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1207146833841</v>
+        <v>827.7555139655965</v>
       </c>
       <c r="M33" t="n">
-        <v>1213.651898822103</v>
+        <v>1265.286698104316</v>
       </c>
       <c r="N33" t="n">
-        <v>1677.171876406051</v>
+        <v>1728.806675688263</v>
       </c>
       <c r="O33" t="n">
         <v>2130.617104000868</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3662.364296534981</v>
+        <v>562.6422615194645</v>
       </c>
       <c r="C34" t="n">
-        <v>3662.364296534981</v>
+        <v>393.7060785915576</v>
       </c>
       <c r="D34" t="n">
-        <v>3662.364296534981</v>
+        <v>243.5894391792218</v>
       </c>
       <c r="E34" t="n">
-        <v>3514.451202952588</v>
+        <v>95.6763455968287</v>
       </c>
       <c r="F34" t="n">
-        <v>3367.561255454678</v>
+        <v>95.6763455968287</v>
       </c>
       <c r="G34" t="n">
-        <v>3199.825519723927</v>
+        <v>95.6763455968287</v>
       </c>
       <c r="H34" t="n">
-        <v>3053.31582998588</v>
+        <v>95.6763455968287</v>
       </c>
       <c r="I34" t="n">
-        <v>2955.000786977912</v>
+        <v>95.6763455968287</v>
       </c>
       <c r="J34" t="n">
-        <v>2997.843739406585</v>
+        <v>138.5192980255019</v>
       </c>
       <c r="K34" t="n">
-        <v>3198.084707795427</v>
+        <v>338.7602664143433</v>
       </c>
       <c r="L34" t="n">
-        <v>3509.850641383609</v>
+        <v>650.5262000025255</v>
       </c>
       <c r="M34" t="n">
-        <v>3848.953228637408</v>
+        <v>989.6287872563245</v>
       </c>
       <c r="N34" t="n">
-        <v>4185.427330719715</v>
+        <v>1326.102889338631</v>
       </c>
       <c r="O34" t="n">
-        <v>4480.199328389782</v>
+        <v>1620.874887008698</v>
       </c>
       <c r="P34" t="n">
-        <v>4708.907013603824</v>
+        <v>1849.582572222741</v>
       </c>
       <c r="Q34" t="n">
-        <v>4783.817279841434</v>
+        <v>1924.49283846035</v>
       </c>
       <c r="R34" t="n">
-        <v>4783.817279841434</v>
+        <v>1924.49283846035</v>
       </c>
       <c r="S34" t="n">
-        <v>4783.817279841434</v>
+        <v>1732.23361260367</v>
       </c>
       <c r="T34" t="n">
-        <v>4561.910095505771</v>
+        <v>1510.326428268006</v>
       </c>
       <c r="U34" t="n">
-        <v>4272.805434134752</v>
+        <v>1334.733470660329</v>
       </c>
       <c r="V34" t="n">
-        <v>4018.120945928866</v>
+        <v>1080.048982454442</v>
       </c>
       <c r="W34" t="n">
-        <v>4018.120945928866</v>
+        <v>790.6318124174818</v>
       </c>
       <c r="X34" t="n">
-        <v>3883.156875678511</v>
+        <v>562.6422615194645</v>
       </c>
       <c r="Y34" t="n">
-        <v>3662.364296534981</v>
+        <v>562.6422615194645</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2377.983686470406</v>
+        <v>2377.983686470404</v>
       </c>
       <c r="C35" t="n">
-        <v>2009.021169529994</v>
+        <v>2009.021169529993</v>
       </c>
       <c r="D35" t="n">
         <v>1650.755470923242</v>
@@ -6931,34 +6931,34 @@
         <v>438.8355204682384</v>
       </c>
       <c r="H35" t="n">
-        <v>140.5007969779649</v>
+        <v>140.5007969779648</v>
       </c>
       <c r="I35" t="n">
         <v>95.67634559682872</v>
       </c>
       <c r="J35" t="n">
-        <v>445.8601128572441</v>
+        <v>445.8601128572442</v>
       </c>
       <c r="K35" t="n">
         <v>1091.439608451213</v>
       </c>
       <c r="L35" t="n">
-        <v>1531.130083916764</v>
+        <v>1531.130083916765</v>
       </c>
       <c r="M35" t="n">
         <v>2052.039894600988</v>
       </c>
       <c r="N35" t="n">
-        <v>2707.728778420149</v>
+        <v>2642.669522745896</v>
       </c>
       <c r="O35" t="n">
-        <v>3575.58188652657</v>
+        <v>3510.522630852318</v>
       </c>
       <c r="P35" t="n">
-        <v>4278.60005289659</v>
+        <v>4213.540797222337</v>
       </c>
       <c r="Q35" t="n">
-        <v>4729.315658168447</v>
+        <v>4664.256402494195</v>
       </c>
       <c r="R35" t="n">
         <v>4783.817279841436</v>
@@ -6970,19 +6970,19 @@
         <v>4465.55650354424</v>
       </c>
       <c r="U35" t="n">
-        <v>4212.020159385104</v>
+        <v>4212.020159385102</v>
       </c>
       <c r="V35" t="n">
-        <v>3880.957272041534</v>
+        <v>3880.957272041532</v>
       </c>
       <c r="W35" t="n">
-        <v>3528.188616771419</v>
+        <v>3528.188616771418</v>
       </c>
       <c r="X35" t="n">
-        <v>3154.722858510339</v>
+        <v>3154.722858510338</v>
       </c>
       <c r="Y35" t="n">
-        <v>2764.583526534528</v>
+        <v>2764.583526534526</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3159.562289618078</v>
+        <v>962.2493847870968</v>
       </c>
       <c r="C36" t="n">
-        <v>2985.109260336951</v>
+        <v>787.7963555059698</v>
       </c>
       <c r="D36" t="n">
-        <v>2836.174850675699</v>
+        <v>638.8619458447185</v>
       </c>
       <c r="E36" t="n">
-        <v>2676.937395670244</v>
+        <v>479.624490839263</v>
       </c>
       <c r="F36" t="n">
-        <v>2530.402837697129</v>
+        <v>333.089932866148</v>
       </c>
       <c r="G36" t="n">
-        <v>2394.000495612176</v>
+        <v>196.6875907811953</v>
       </c>
       <c r="H36" t="n">
-        <v>2303.119606940873</v>
+        <v>105.8067021098925</v>
       </c>
       <c r="I36" t="n">
-        <v>2292.98925042781</v>
+        <v>95.67634559682872</v>
       </c>
       <c r="J36" t="n">
-        <v>2383.032798539134</v>
+        <v>237.3546929903654</v>
       </c>
       <c r="K36" t="n">
-        <v>2666.721188193857</v>
+        <v>469.408283362875</v>
       </c>
       <c r="L36" t="n">
-        <v>3025.068418796578</v>
+        <v>827.7555139655965</v>
       </c>
       <c r="M36" t="n">
-        <v>3462.599602935297</v>
+        <v>1265.286698104316</v>
       </c>
       <c r="N36" t="n">
-        <v>3926.119580519245</v>
+        <v>1728.806675688263</v>
       </c>
       <c r="O36" t="n">
-        <v>4327.930008831849</v>
+        <v>2130.617104000868</v>
       </c>
       <c r="P36" t="n">
-        <v>4631.085235542543</v>
+        <v>2433.772330711562</v>
       </c>
       <c r="Q36" t="n">
-        <v>4783.817279841436</v>
+        <v>2586.504375010456</v>
       </c>
       <c r="R36" t="n">
-        <v>4783.817279841436</v>
+        <v>2586.504375010456</v>
       </c>
       <c r="S36" t="n">
-        <v>4653.650491927407</v>
+        <v>2456.337587096426</v>
       </c>
       <c r="T36" t="n">
-        <v>4460.849319139264</v>
+        <v>2263.536414308283</v>
       </c>
       <c r="U36" t="n">
-        <v>4232.778890568577</v>
+        <v>2035.465985737596</v>
       </c>
       <c r="V36" t="n">
-        <v>3997.626782336834</v>
+        <v>1800.313877505853</v>
       </c>
       <c r="W36" t="n">
-        <v>3743.389425608632</v>
+        <v>1546.076520777651</v>
       </c>
       <c r="X36" t="n">
-        <v>3535.5379254031</v>
+        <v>1338.225020572119</v>
       </c>
       <c r="Y36" t="n">
-        <v>3327.777626638146</v>
+        <v>1130.464721807165</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1122.09267749414</v>
+        <v>263.4120813275797</v>
       </c>
       <c r="C37" t="n">
-        <v>953.1564945662334</v>
+        <v>263.4120813275797</v>
       </c>
       <c r="D37" t="n">
-        <v>803.0398551538976</v>
+        <v>263.4120813275797</v>
       </c>
       <c r="E37" t="n">
-        <v>655.1267615715045</v>
+        <v>263.4120813275797</v>
       </c>
       <c r="F37" t="n">
-        <v>508.2368140735942</v>
+        <v>263.4120813275797</v>
       </c>
       <c r="G37" t="n">
-        <v>340.5010783428432</v>
+        <v>95.67634559682872</v>
       </c>
       <c r="H37" t="n">
-        <v>193.991388604796</v>
+        <v>95.67634559682872</v>
       </c>
       <c r="I37" t="n">
         <v>95.67634559682872</v>
@@ -7098,49 +7098,49 @@
         <v>138.5192980255019</v>
       </c>
       <c r="K37" t="n">
-        <v>338.7602664143432</v>
+        <v>338.7602664143433</v>
       </c>
       <c r="L37" t="n">
-        <v>650.5262000025252</v>
+        <v>650.5262000025255</v>
       </c>
       <c r="M37" t="n">
-        <v>989.6287872563241</v>
+        <v>989.6287872563245</v>
       </c>
       <c r="N37" t="n">
         <v>1326.102889338631</v>
       </c>
       <c r="O37" t="n">
-        <v>1620.874887008698</v>
+        <v>1620.874887008704</v>
       </c>
       <c r="P37" t="n">
-        <v>1849.58257222274</v>
+        <v>1849.582572222746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1924.492838460354</v>
+        <v>1924.492838460356</v>
       </c>
       <c r="R37" t="n">
-        <v>1924.492838460354</v>
+        <v>1924.492838460356</v>
       </c>
       <c r="S37" t="n">
-        <v>1924.492838460354</v>
+        <v>1732.233612603675</v>
       </c>
       <c r="T37" t="n">
-        <v>1702.585654124691</v>
+        <v>1510.326428268011</v>
       </c>
       <c r="U37" t="n">
-        <v>1413.480992753672</v>
+        <v>1221.221766896993</v>
       </c>
       <c r="V37" t="n">
-        <v>1413.480992753672</v>
+        <v>1001.611381406088</v>
       </c>
       <c r="W37" t="n">
-        <v>1303.74114232438</v>
+        <v>712.1942113691272</v>
       </c>
       <c r="X37" t="n">
-        <v>1303.74114232438</v>
+        <v>484.2046604711098</v>
       </c>
       <c r="Y37" t="n">
-        <v>1303.74114232438</v>
+        <v>263.4120813275797</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2377.983686470404</v>
+        <v>2377.983686470403</v>
       </c>
       <c r="C38" t="n">
-        <v>2009.021169529993</v>
+        <v>2009.021169529992</v>
       </c>
       <c r="D38" t="n">
         <v>1650.755470923242</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.967218324998</v>
+        <v>1264.967218324997</v>
       </c>
       <c r="F38" t="n">
-        <v>853.9813135353904</v>
+        <v>853.9813135353897</v>
       </c>
       <c r="G38" t="n">
         <v>438.8355204682384</v>
       </c>
       <c r="H38" t="n">
-        <v>140.5007969779649</v>
+        <v>140.5007969779648</v>
       </c>
       <c r="I38" t="n">
-        <v>95.67634559682872</v>
+        <v>95.6763455968287</v>
       </c>
       <c r="J38" t="n">
         <v>445.8601128572441</v>
       </c>
       <c r="K38" t="n">
-        <v>770.5356500057594</v>
+        <v>1091.439608451213</v>
       </c>
       <c r="L38" t="n">
-        <v>1470.447530555675</v>
+        <v>1587.807227667303</v>
       </c>
       <c r="M38" t="n">
-        <v>2436.375739397803</v>
+        <v>2108.717038351527</v>
       </c>
       <c r="N38" t="n">
-        <v>3403.301678960035</v>
+        <v>2642.669522745894</v>
       </c>
       <c r="O38" t="n">
-        <v>3894.162607616338</v>
+        <v>3510.522630852316</v>
       </c>
       <c r="P38" t="n">
-        <v>4278.60005289659</v>
+        <v>4213.540797222336</v>
       </c>
       <c r="Q38" t="n">
-        <v>4729.315658168447</v>
+        <v>4664.256402494193</v>
       </c>
       <c r="R38" t="n">
-        <v>4783.817279841436</v>
+        <v>4783.817279841434</v>
       </c>
       <c r="S38" t="n">
-        <v>4671.855309757948</v>
+        <v>4671.855309757946</v>
       </c>
       <c r="T38" t="n">
-        <v>4465.55650354424</v>
+        <v>4465.556503544238</v>
       </c>
       <c r="U38" t="n">
-        <v>4212.020159385104</v>
+        <v>4212.020159385102</v>
       </c>
       <c r="V38" t="n">
-        <v>3880.957272041532</v>
+        <v>3880.957272041531</v>
       </c>
       <c r="W38" t="n">
-        <v>3528.188616771418</v>
+        <v>3528.188616771416</v>
       </c>
       <c r="X38" t="n">
-        <v>3154.722858510338</v>
+        <v>3154.722858510337</v>
       </c>
       <c r="Y38" t="n">
-        <v>2764.583526534526</v>
+        <v>2764.583526534525</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3159.562289618078</v>
+        <v>962.2493847870968</v>
       </c>
       <c r="C39" t="n">
-        <v>2985.109260336951</v>
+        <v>787.7963555059698</v>
       </c>
       <c r="D39" t="n">
-        <v>2836.174850675699</v>
+        <v>638.8619458447185</v>
       </c>
       <c r="E39" t="n">
-        <v>2676.937395670244</v>
+        <v>479.624490839263</v>
       </c>
       <c r="F39" t="n">
-        <v>2530.402837697129</v>
+        <v>333.0899328661479</v>
       </c>
       <c r="G39" t="n">
-        <v>2394.000495612176</v>
+        <v>196.6875907811952</v>
       </c>
       <c r="H39" t="n">
-        <v>2303.119606940873</v>
+        <v>105.8067021098924</v>
       </c>
       <c r="I39" t="n">
-        <v>2292.98925042781</v>
+        <v>95.6763455968287</v>
       </c>
       <c r="J39" t="n">
-        <v>2383.032798539134</v>
+        <v>237.3546929903654</v>
       </c>
       <c r="K39" t="n">
-        <v>2615.086388911644</v>
+        <v>469.408283362875</v>
       </c>
       <c r="L39" t="n">
-        <v>3025.068418796578</v>
+        <v>827.7555139655965</v>
       </c>
       <c r="M39" t="n">
-        <v>3462.599602935297</v>
+        <v>1265.286698104316</v>
       </c>
       <c r="N39" t="n">
-        <v>3926.119580519245</v>
+        <v>1728.806675688263</v>
       </c>
       <c r="O39" t="n">
-        <v>4327.930008831849</v>
+        <v>2130.617104000868</v>
       </c>
       <c r="P39" t="n">
-        <v>4631.085235542543</v>
+        <v>2433.772330711562</v>
       </c>
       <c r="Q39" t="n">
-        <v>4783.817279841436</v>
+        <v>2586.504375010456</v>
       </c>
       <c r="R39" t="n">
-        <v>4783.817279841436</v>
+        <v>2586.504375010456</v>
       </c>
       <c r="S39" t="n">
-        <v>4653.650491927407</v>
+        <v>2456.337587096426</v>
       </c>
       <c r="T39" t="n">
-        <v>4460.849319139264</v>
+        <v>2263.536414308283</v>
       </c>
       <c r="U39" t="n">
-        <v>4232.778890568577</v>
+        <v>2035.465985737596</v>
       </c>
       <c r="V39" t="n">
-        <v>3997.626782336834</v>
+        <v>1800.313877505853</v>
       </c>
       <c r="W39" t="n">
-        <v>3743.389425608632</v>
+        <v>1546.076520777651</v>
       </c>
       <c r="X39" t="n">
-        <v>3535.5379254031</v>
+        <v>1338.225020572119</v>
       </c>
       <c r="Y39" t="n">
-        <v>3327.777626638146</v>
+        <v>1130.464721807165</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3399.540209710686</v>
+        <v>449.1305577561232</v>
       </c>
       <c r="C40" t="n">
-        <v>3399.540209710686</v>
+        <v>393.7060785915576</v>
       </c>
       <c r="D40" t="n">
-        <v>3249.423570298351</v>
+        <v>243.5894391792218</v>
       </c>
       <c r="E40" t="n">
-        <v>3101.510476715957</v>
+        <v>95.6763455968287</v>
       </c>
       <c r="F40" t="n">
-        <v>3101.510476715957</v>
+        <v>95.6763455968287</v>
       </c>
       <c r="G40" t="n">
-        <v>3101.510476715957</v>
+        <v>95.6763455968287</v>
       </c>
       <c r="H40" t="n">
-        <v>2955.00078697791</v>
+        <v>95.6763455968287</v>
       </c>
       <c r="I40" t="n">
-        <v>2955.00078697791</v>
+        <v>95.6763455968287</v>
       </c>
       <c r="J40" t="n">
-        <v>2997.843739406583</v>
+        <v>138.5192980255019</v>
       </c>
       <c r="K40" t="n">
-        <v>3198.084707795424</v>
+        <v>338.7602664143433</v>
       </c>
       <c r="L40" t="n">
-        <v>3509.850641383607</v>
+        <v>650.5262000025255</v>
       </c>
       <c r="M40" t="n">
-        <v>3848.953228637406</v>
+        <v>989.6287872563245</v>
       </c>
       <c r="N40" t="n">
-        <v>4185.427330719717</v>
+        <v>1326.102889338631</v>
       </c>
       <c r="O40" t="n">
-        <v>4480.199328389785</v>
+        <v>1620.874887008698</v>
       </c>
       <c r="P40" t="n">
-        <v>4708.907013603826</v>
+        <v>1849.582572222741</v>
       </c>
       <c r="Q40" t="n">
-        <v>4783.817279841436</v>
+        <v>1924.49283846035</v>
       </c>
       <c r="R40" t="n">
-        <v>4783.817279841436</v>
+        <v>1924.49283846035</v>
       </c>
       <c r="S40" t="n">
-        <v>4591.558053984755</v>
+        <v>1732.23361260367</v>
       </c>
       <c r="T40" t="n">
-        <v>4591.558053984755</v>
+        <v>1510.326428268006</v>
       </c>
       <c r="U40" t="n">
-        <v>4302.453392613736</v>
+        <v>1221.221766896988</v>
       </c>
       <c r="V40" t="n">
-        <v>4047.76890440785</v>
+        <v>966.5372786911011</v>
       </c>
       <c r="W40" t="n">
-        <v>4029.970804582474</v>
+        <v>677.1201086541405</v>
       </c>
       <c r="X40" t="n">
-        <v>3801.981253684456</v>
+        <v>449.1305577561232</v>
       </c>
       <c r="Y40" t="n">
-        <v>3581.188674540926</v>
+        <v>449.1305577561232</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2142.403640848942</v>
+        <v>1403.035145514708</v>
       </c>
       <c r="C41" t="n">
-        <v>1773.441123908531</v>
+        <v>1403.035145514708</v>
       </c>
       <c r="D41" t="n">
-        <v>1415.17542530178</v>
+        <v>1276.661382823592</v>
       </c>
       <c r="E41" t="n">
-        <v>1189.207853715621</v>
+        <v>890.8731302253477</v>
       </c>
       <c r="F41" t="n">
-        <v>778.2219489260137</v>
+        <v>479.8872254357401</v>
       </c>
       <c r="G41" t="n">
-        <v>363.0761558588617</v>
+        <v>64.74143236858812</v>
       </c>
       <c r="H41" t="n">
-        <v>64.74143236858809</v>
+        <v>64.74143236858812</v>
       </c>
       <c r="I41" t="n">
-        <v>64.74143236858809</v>
+        <v>64.74143236858812</v>
       </c>
       <c r="J41" t="n">
-        <v>247.5195506086504</v>
+        <v>247.5195506086511</v>
       </c>
       <c r="K41" t="n">
-        <v>572.1950877571658</v>
+        <v>572.1950877571667</v>
       </c>
       <c r="L41" t="n">
-        <v>1011.885563222717</v>
+        <v>1011.885563222718</v>
       </c>
       <c r="M41" t="n">
-        <v>1532.795373906941</v>
+        <v>1532.795373906942</v>
       </c>
       <c r="N41" t="n">
-        <v>2066.747858301308</v>
+        <v>2066.747858301309</v>
       </c>
       <c r="O41" t="n">
-        <v>2557.608786957611</v>
+        <v>2557.608786957613</v>
       </c>
       <c r="P41" t="n">
-        <v>2942.046232237864</v>
+        <v>2942.046232237865</v>
       </c>
       <c r="Q41" t="n">
-        <v>3182.569996756416</v>
+        <v>3182.569996756417</v>
       </c>
       <c r="R41" t="n">
-        <v>3237.071618429405</v>
+        <v>3237.071618429406</v>
       </c>
       <c r="S41" t="n">
-        <v>3237.071618429405</v>
+        <v>3237.071618429406</v>
       </c>
       <c r="T41" t="n">
-        <v>3237.071618429405</v>
+        <v>3237.071618429406</v>
       </c>
       <c r="U41" t="n">
-        <v>3237.071618429405</v>
+        <v>3237.071618429406</v>
       </c>
       <c r="V41" t="n">
-        <v>2906.008731085834</v>
+        <v>2906.008731085835</v>
       </c>
       <c r="W41" t="n">
-        <v>2906.008731085834</v>
+        <v>2553.240075815721</v>
       </c>
       <c r="X41" t="n">
-        <v>2532.542972824754</v>
+        <v>2179.774317554641</v>
       </c>
       <c r="Y41" t="n">
-        <v>2142.403640848942</v>
+        <v>1789.634985578829</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>74.87178888165185</v>
       </c>
       <c r="I42" t="n">
-        <v>64.74143236858809</v>
+        <v>64.74143236858812</v>
       </c>
       <c r="J42" t="n">
-        <v>154.7849804799124</v>
+        <v>206.4197797621249</v>
       </c>
       <c r="K42" t="n">
-        <v>386.8385708524219</v>
+        <v>438.4733701346345</v>
       </c>
       <c r="L42" t="n">
-        <v>745.1858014551433</v>
+        <v>796.820600737356</v>
       </c>
       <c r="M42" t="n">
-        <v>1182.716985593862</v>
+        <v>1234.351784876075</v>
       </c>
       <c r="N42" t="n">
-        <v>1646.236963177809</v>
+        <v>1697.871762460023</v>
       </c>
       <c r="O42" t="n">
-        <v>2048.047391490414</v>
+        <v>2099.682190772627</v>
       </c>
       <c r="P42" t="n">
         <v>2402.837417483322</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>233.677615296495</v>
+        <v>418.1956445278822</v>
       </c>
       <c r="C43" t="n">
-        <v>64.74143236858809</v>
+        <v>418.1956445278822</v>
       </c>
       <c r="D43" t="n">
-        <v>64.74143236858809</v>
+        <v>268.0790051155465</v>
       </c>
       <c r="E43" t="n">
-        <v>64.74143236858809</v>
+        <v>120.1659115331533</v>
       </c>
       <c r="F43" t="n">
-        <v>64.74143236858809</v>
+        <v>64.74143236858812</v>
       </c>
       <c r="G43" t="n">
-        <v>64.74143236858809</v>
+        <v>64.74143236858812</v>
       </c>
       <c r="H43" t="n">
-        <v>64.74143236858809</v>
+        <v>64.74143236858812</v>
       </c>
       <c r="I43" t="n">
-        <v>64.74143236858809</v>
+        <v>64.74143236858812</v>
       </c>
       <c r="J43" t="n">
-        <v>107.5843847972613</v>
+        <v>107.5843847972614</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8253531861026</v>
+        <v>307.8253531861027</v>
       </c>
       <c r="L43" t="n">
-        <v>619.5912867742846</v>
+        <v>619.5912867742849</v>
       </c>
       <c r="M43" t="n">
-        <v>958.6938740280837</v>
+        <v>958.6938740280839</v>
       </c>
       <c r="N43" t="n">
-        <v>1295.16797611039</v>
+        <v>1295.167976110391</v>
       </c>
       <c r="O43" t="n">
-        <v>1589.939973780457</v>
+        <v>1589.939973780458</v>
       </c>
       <c r="P43" t="n">
         <v>1818.6476589945</v>
       </c>
       <c r="Q43" t="n">
-        <v>1893.557925232109</v>
+        <v>1893.55792523211</v>
       </c>
       <c r="R43" t="n">
-        <v>1802.248204574601</v>
+        <v>1893.55792523211</v>
       </c>
       <c r="S43" t="n">
-        <v>1609.98897871792</v>
+        <v>1701.298699375429</v>
       </c>
       <c r="T43" t="n">
-        <v>1388.081794382256</v>
+        <v>1479.391515039765</v>
       </c>
       <c r="U43" t="n">
-        <v>1098.977133011238</v>
+        <v>1190.286853668747</v>
       </c>
       <c r="V43" t="n">
-        <v>844.2926448053512</v>
+        <v>935.6023654628601</v>
       </c>
       <c r="W43" t="n">
-        <v>554.8754747683906</v>
+        <v>646.1851954258996</v>
       </c>
       <c r="X43" t="n">
-        <v>415.3260801267347</v>
+        <v>418.1956445278822</v>
       </c>
       <c r="Y43" t="n">
-        <v>415.3260801267347</v>
+        <v>418.1956445278822</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1505.450164473176</v>
+        <v>2003.889598370754</v>
       </c>
       <c r="C44" t="n">
-        <v>1136.487647532764</v>
+        <v>1634.927081430342</v>
       </c>
       <c r="D44" t="n">
-        <v>778.2219489260137</v>
+        <v>1276.661382823592</v>
       </c>
       <c r="E44" t="n">
-        <v>778.2219489260137</v>
+        <v>890.8731302253477</v>
       </c>
       <c r="F44" t="n">
-        <v>778.2219489260137</v>
+        <v>479.8872254357401</v>
       </c>
       <c r="G44" t="n">
-        <v>363.0761558588617</v>
+        <v>64.74143236858809</v>
       </c>
       <c r="H44" t="n">
         <v>64.74143236858809</v>
@@ -7654,13 +7654,13 @@
         <v>572.1950877571659</v>
       </c>
       <c r="L44" t="n">
-        <v>1011.885563222718</v>
+        <v>1011.885563222717</v>
       </c>
       <c r="M44" t="n">
         <v>1532.795373906941</v>
       </c>
       <c r="N44" t="n">
-        <v>2066.747858301309</v>
+        <v>2066.747858301308</v>
       </c>
       <c r="O44" t="n">
         <v>2557.608786957612</v>
@@ -7675,25 +7675,25 @@
         <v>3237.071618429405</v>
       </c>
       <c r="S44" t="n">
-        <v>3125.109648345916</v>
+        <v>3237.071618429405</v>
       </c>
       <c r="T44" t="n">
-        <v>2918.810842132208</v>
+        <v>3237.071618429405</v>
       </c>
       <c r="U44" t="n">
-        <v>2665.274497973073</v>
+        <v>3154.094528671767</v>
       </c>
       <c r="V44" t="n">
-        <v>2334.211610629502</v>
+        <v>3154.094528671767</v>
       </c>
       <c r="W44" t="n">
-        <v>2282.189336513109</v>
+        <v>3154.094528671767</v>
       </c>
       <c r="X44" t="n">
-        <v>2282.189336513109</v>
+        <v>2780.628770410688</v>
       </c>
       <c r="Y44" t="n">
-        <v>1892.050004537298</v>
+        <v>2390.489438434876</v>
       </c>
     </row>
     <row r="45">
@@ -7736,16 +7736,16 @@
         <v>745.1858014551433</v>
       </c>
       <c r="M45" t="n">
-        <v>1234.351784876076</v>
+        <v>1182.716985593862</v>
       </c>
       <c r="N45" t="n">
-        <v>1697.871762460023</v>
+        <v>1646.236963177809</v>
       </c>
       <c r="O45" t="n">
-        <v>2099.682190772627</v>
+        <v>2048.047391490414</v>
       </c>
       <c r="P45" t="n">
-        <v>2402.837417483322</v>
+        <v>2351.202618201108</v>
       </c>
       <c r="Q45" t="n">
         <v>2555.569461782215</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1041.220146024659</v>
+        <v>678.5972957891341</v>
       </c>
       <c r="C46" t="n">
-        <v>872.2839630967521</v>
+        <v>509.6611128612273</v>
       </c>
       <c r="D46" t="n">
-        <v>722.1673236844164</v>
+        <v>359.5444734488916</v>
       </c>
       <c r="E46" t="n">
-        <v>574.2542301020233</v>
+        <v>211.6313798664984</v>
       </c>
       <c r="F46" t="n">
-        <v>427.3642826041129</v>
+        <v>64.74143236858809</v>
       </c>
       <c r="G46" t="n">
-        <v>259.6285468733619</v>
+        <v>64.74143236858809</v>
       </c>
       <c r="H46" t="n">
-        <v>113.1188571353147</v>
+        <v>64.74143236858809</v>
       </c>
       <c r="I46" t="n">
         <v>64.74143236858809</v>
@@ -7833,25 +7833,25 @@
         <v>1893.557925232109</v>
       </c>
       <c r="S46" t="n">
-        <v>1893.557925232109</v>
+        <v>1701.298699375429</v>
       </c>
       <c r="T46" t="n">
-        <v>1671.650740896446</v>
+        <v>1479.391515039765</v>
       </c>
       <c r="U46" t="n">
-        <v>1671.650740896446</v>
+        <v>1479.391515039765</v>
       </c>
       <c r="V46" t="n">
-        <v>1671.650740896446</v>
+        <v>1224.707026833878</v>
       </c>
       <c r="W46" t="n">
-        <v>1671.650740896446</v>
+        <v>1224.707026833878</v>
       </c>
       <c r="X46" t="n">
-        <v>1443.661189998429</v>
+        <v>1081.038339762904</v>
       </c>
       <c r="Y46" t="n">
-        <v>1222.868610854899</v>
+        <v>860.2457606193739</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8063,7 +8063,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8072,10 +8072,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8300,7 +8300,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8309,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.15636291132574</v>
       </c>
       <c r="K12" t="n">
-        <v>52.15636291132574</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>52.15636291132574</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>2.554986624640236</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>274.0853873749828</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>60.50061259217696</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>52.15636291132569</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>52.15636291132574</v>
       </c>
       <c r="R18" t="n">
         <v>2.554986624640236</v>
@@ -9403,28 +9403,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>408.5151594780514</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>160.8838755341628</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.15636291132566</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>52.15636291132569</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9640,28 +9640,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>169.7995121748941</v>
+        <v>226.6002954071449</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.15636291132566</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>52.15636291132569</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>139.6534256689081</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>226.6002954071449</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>52.15636291132566</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>52.15636291132569</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10114,19 +10114,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>226.6002954071449</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>295.313647637232</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>52.15636291132566</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>52.15636291132569</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>94.36471352277619</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>160.8838755341634</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>52.15636291132566</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>52.15636291132591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>122.9660600250442</v>
+        <v>57.24964015206115</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.15636291132563</v>
       </c>
       <c r="K36" t="n">
-        <v>52.1563629113262</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>2.554986624640264</v>
+        <v>2.554986624640236</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,28 +10825,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>262.8499041256204</v>
+        <v>57.2496401520591</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>52.15636291132566</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>52.15636291132631</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>2.554986624640264</v>
+        <v>2.554986624640236</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>52.15636291132574</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>52.15636291132665</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>2.554986624640264</v>
+        <v>2.554986624640236</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>52.15636291132671</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>52.15636291132674</v>
       </c>
       <c r="R45" t="n">
         <v>2.554986624640264</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9943351364805</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>295.3513762553708</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>44.37620686732473</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,10 +23314,10 @@
         <v>204.2358181515709</v>
       </c>
       <c r="U11" t="n">
-        <v>179.0546766750526</v>
+        <v>251.0009807175441</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>294.6939235736594</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>89.04022047106174</v>
+        <v>166.0583783734434</v>
       </c>
       <c r="H13" t="n">
-        <v>145.0445928406667</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>97.3318925778876</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>90.39662345093393</v>
       </c>
       <c r="S13" t="n">
-        <v>190.3366335981139</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.6881124923068</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2136147573082</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>30.60806503712595</v>
       </c>
     </row>
     <row r="14">
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>268.674952277965</v>
       </c>
       <c r="F14" t="n">
-        <v>59.39558038088626</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9943351364805</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>44.37620686732473</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>110.8423503826538</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0009807175441</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>96.05661487574547</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0583783734434</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>145.0445928406667</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>97.3318925778876</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.39662345093393</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>207.1606366388096</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.9962366429516</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>136.2417387592236</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.0445928406667</v>
       </c>
       <c r="I19" t="n">
         <v>97.3318925778876</v>
@@ -23943,7 +23943,7 @@
         <v>190.3366335981139</v>
       </c>
       <c r="T19" t="n">
-        <v>219.6881124923068</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0583783734434</v>
       </c>
       <c r="H22" t="n">
         <v>145.0445928406667</v>
       </c>
       <c r="I22" t="n">
-        <v>73.20700464030779</v>
+        <v>97.3318925778876</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.39662345093393</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>17.28045633260592</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>150.7844132248632</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>67.46100115052563</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0583783734434</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.0445928406667</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.3318925778876</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>90.39662345093393</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>190.3366335981139</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0583783734434</v>
+        <v>99.58003144413526</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.0445928406667</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>97.3318925778876</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.5294865696616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>89.44735450979951</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0583783734434</v>
       </c>
       <c r="H31" t="n">
         <v>145.0445928406667</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.3318925778876</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.6881124923068</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>132.0552542657243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0583783734434</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.0445928406667</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>97.3318925778876</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>90.39662345093393</v>
       </c>
       <c r="S34" t="n">
-        <v>190.3366335981139</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>112.3765867257081</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>92.09522584118639</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.0445928406667</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.3318925778876</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.39662345093394</v>
+        <v>90.39662345093393</v>
       </c>
       <c r="S37" t="n">
-        <v>190.3366335981139</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>34.7233616878319</v>
       </c>
       <c r="W37" t="n">
-        <v>177.8805464115916</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>112.3765867257079</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>166.0583783734434</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.0445928406667</v>
       </c>
       <c r="I40" t="n">
-        <v>97.33189257788761</v>
+        <v>97.3318925778876</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.39662345093394</v>
+        <v>90.39662345093393</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.6881124923068</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>268.9028795094687</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>229.5730165564785</v>
       </c>
       <c r="E41" t="n">
-        <v>158.2224742019644</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>295.3513762553708</v>
       </c>
       <c r="I41" t="n">
-        <v>44.37620686732475</v>
+        <v>44.37620686732473</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>90.55081365001168</v>
       </c>
       <c r="G43" t="n">
         <v>166.0583783734434</v>
       </c>
       <c r="H43" t="n">
-        <v>145.0445928406668</v>
+        <v>145.0445928406667</v>
       </c>
       <c r="I43" t="n">
-        <v>97.33189257788761</v>
+        <v>97.3318925778876</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>90.39662345093393</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>87.55575469379781</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25873,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>295.3513762553708</v>
       </c>
       <c r="I44" t="n">
         <v>44.37620686732475</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>110.8423503826538</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>204.2358181515709</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>168.8536618574832</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>297.738917342184</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0583783734434</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.0445928406668</v>
       </c>
       <c r="I46" t="n">
-        <v>49.43824205882828</v>
+        <v>97.33189257788761</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>90.39662345093394</v>
       </c>
       <c r="S46" t="n">
-        <v>190.3366335981139</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>286.2136147573082</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>83.47765518877236</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>713670.1991958651</v>
+        <v>713670.199195865</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>713670.1991958651</v>
+        <v>713670.199195865</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>866517.1413501498</v>
+        <v>866517.1413501499</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>866517.1413501498</v>
+        <v>866517.1413501499</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>866517.1413501499</v>
+        <v>866517.1413501498</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>866517.1413501499</v>
+        <v>866517.14135015</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>713670.1991958648</v>
+        <v>713670.1991958652</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>713670.1991958651</v>
+        <v>713670.199195865</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="C2" t="n">
+        <v>574729.2389049982</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049983</v>
       </c>
-      <c r="D2" t="n">
-        <v>574729.2389049981</v>
-      </c>
       <c r="E2" t="n">
+        <v>471708.1050722556</v>
+      </c>
+      <c r="F2" t="n">
         <v>471708.1050722555</v>
       </c>
-      <c r="F2" t="n">
-        <v>471708.1050722556</v>
-      </c>
       <c r="G2" t="n">
-        <v>555324.4702121683</v>
+        <v>555324.4702121684</v>
       </c>
       <c r="H2" t="n">
-        <v>555324.4702121684</v>
+        <v>555324.4702121681</v>
       </c>
       <c r="I2" t="n">
         <v>555324.4702121682</v>
       </c>
       <c r="J2" t="n">
-        <v>555324.4702121678</v>
+        <v>555324.4702121679</v>
       </c>
       <c r="K2" t="n">
         <v>555324.4702121681</v>
       </c>
       <c r="L2" t="n">
-        <v>555324.4702121681</v>
+        <v>555324.4702121682</v>
       </c>
       <c r="M2" t="n">
-        <v>555324.4702121681</v>
+        <v>555324.4702121682</v>
       </c>
       <c r="N2" t="n">
         <v>555324.4702121683</v>
       </c>
       <c r="O2" t="n">
-        <v>471708.1050722555</v>
+        <v>471708.1050722557</v>
       </c>
       <c r="P2" t="n">
-        <v>471708.1050722555</v>
+        <v>471708.1050722554</v>
       </c>
     </row>
     <row r="3">
@@ -26377,10 +26377,10 @@
         <v>1030687.147886626</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.507802830247189e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>105984.9461520292</v>
+        <v>105984.946152029</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>354433.2672769093</v>
       </c>
       <c r="C4" t="n">
-        <v>354433.2672769092</v>
+        <v>354433.2672769093</v>
       </c>
       <c r="D4" t="n">
         <v>354433.2672769093</v>
@@ -26438,7 +26438,7 @@
         <v>34322.37349044526</v>
       </c>
       <c r="I4" t="n">
-        <v>34322.37349044527</v>
+        <v>34322.37349044526</v>
       </c>
       <c r="J4" t="n">
         <v>34322.37349044526</v>
@@ -26447,19 +26447,19 @@
         <v>34322.37349044526</v>
       </c>
       <c r="L4" t="n">
-        <v>34322.37349044526</v>
+        <v>34322.37349044527</v>
       </c>
       <c r="M4" t="n">
-        <v>34322.37349044533</v>
+        <v>34322.37349044532</v>
       </c>
       <c r="N4" t="n">
-        <v>34322.37349044533</v>
+        <v>34322.37349044527</v>
       </c>
       <c r="O4" t="n">
-        <v>6717.163083066718</v>
+        <v>6717.163083066692</v>
       </c>
       <c r="P4" t="n">
-        <v>6717.163083066701</v>
+        <v>6717.1630830667</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>72566.87759897616</v>
       </c>
       <c r="F5" t="n">
-        <v>72566.87759897616</v>
+        <v>72566.87759897613</v>
       </c>
       <c r="G5" t="n">
         <v>96077.41165243898</v>
@@ -26505,10 +26505,10 @@
         <v>96077.41165243901</v>
       </c>
       <c r="N5" t="n">
-        <v>96077.41165243901</v>
+        <v>96077.41165243898</v>
       </c>
       <c r="O5" t="n">
-        <v>72566.87759897613</v>
+        <v>72566.87759897616</v>
       </c>
       <c r="P5" t="n">
         <v>72566.87759897613</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>91245.27133277972</v>
+        <v>91245.27133277943</v>
       </c>
       <c r="C6" t="n">
+        <v>172014.7028643272</v>
+      </c>
+      <c r="D6" t="n">
         <v>172014.7028643274</v>
       </c>
-      <c r="D6" t="n">
-        <v>172014.7028643271</v>
-      </c>
       <c r="E6" t="n">
-        <v>-638263.0834964134</v>
+        <v>-641942.4097047256</v>
       </c>
       <c r="F6" t="n">
-        <v>392424.0643902128</v>
+        <v>388744.7381819003</v>
       </c>
       <c r="G6" t="n">
-        <v>318939.7389172548</v>
+        <v>318246.7114639398</v>
       </c>
       <c r="H6" t="n">
-        <v>424924.6850692842</v>
+        <v>424231.6576159684</v>
       </c>
       <c r="I6" t="n">
-        <v>424924.6850692839</v>
+        <v>424231.6576159686</v>
       </c>
       <c r="J6" t="n">
-        <v>361864.7424701774</v>
+        <v>361171.7150168621</v>
       </c>
       <c r="K6" t="n">
-        <v>424924.6850692838</v>
+        <v>424231.6576159684</v>
       </c>
       <c r="L6" t="n">
-        <v>424924.6850692838</v>
+        <v>424231.6576159686</v>
       </c>
       <c r="M6" t="n">
-        <v>283313.6110149815</v>
+        <v>282620.5835616663</v>
       </c>
       <c r="N6" t="n">
-        <v>424924.6850692839</v>
+        <v>424231.6576159687</v>
       </c>
       <c r="O6" t="n">
-        <v>392424.0643902127</v>
+        <v>388744.7381819005</v>
       </c>
       <c r="P6" t="n">
-        <v>392424.0643902126</v>
+        <v>388744.7381819003</v>
       </c>
     </row>
   </sheetData>
@@ -26770,13 +26770,13 @@
         <v>1071.71509169033</v>
       </c>
       <c r="M3" t="n">
-        <v>1071.715091690329</v>
+        <v>1071.71509169033</v>
       </c>
       <c r="N3" t="n">
-        <v>1071.715091690329</v>
+        <v>1071.71509169033</v>
       </c>
       <c r="O3" t="n">
-        <v>1071.715091690329</v>
+        <v>1071.71509169033</v>
       </c>
       <c r="P3" t="n">
         <v>1071.715091690329</v>
@@ -26801,7 +26801,7 @@
         <v>809.2679046073515</v>
       </c>
       <c r="F4" t="n">
-        <v>809.2679046073515</v>
+        <v>809.2679046073513</v>
       </c>
       <c r="G4" t="n">
         <v>1195.954319960359</v>
@@ -26828,7 +26828,7 @@
         <v>1195.954319960359</v>
       </c>
       <c r="O4" t="n">
-        <v>809.2679046073512</v>
+        <v>809.2679046073515</v>
       </c>
       <c r="P4" t="n">
         <v>809.2679046073512</v>
@@ -27023,10 +27023,10 @@
         <v>568.2536157296925</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>5.26235954240519e-13</v>
       </c>
       <c r="G4" t="n">
-        <v>386.6864153530079</v>
+        <v>386.6864153530072</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>568.2536157296925</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>5.26235954240519e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>386.6864153530079</v>
+        <v>386.6864153530072</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,31 +27378,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>213.0080510862378</v>
+        <v>351.1641048164582</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27435,10 +27435,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>120.2469615333118</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>142.1730134999915</v>
       </c>
     </row>
     <row r="4">
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>120.9660550247851</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27590,7 +27590,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>61.00025583355162</v>
+        <v>52.64063978314516</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27697,22 +27697,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27751,16 +27751,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>37.86071223746734</v>
+        <v>145.754164815975</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>59.79494433408007</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27861,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>214.9666412263055</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27897,13 +27897,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>40.85345576880712</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27912,10 +27912,10 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27934,10 +27934,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27949,10 +27949,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27985,16 +27985,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>129.6864438185636</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>60.34421521279029</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.80401177309074</v>
+        <v>59.79494433408007</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30182,13 +30182,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>5.278858831540371e-12</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.336205468765305e-12</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -30282,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30416,7 +30416,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>4.901797486430345e-12</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.308402378654588</v>
+        <v>4.308402378654589</v>
       </c>
       <c r="H35" t="n">
-        <v>44.12342586039631</v>
+        <v>44.12342586039632</v>
       </c>
       <c r="I35" t="n">
         <v>166.0996827030812</v>
       </c>
       <c r="J35" t="n">
-        <v>365.6702663853351</v>
+        <v>365.6702663853352</v>
       </c>
       <c r="K35" t="n">
-        <v>548.0449390737839</v>
+        <v>548.044939073784</v>
       </c>
       <c r="L35" t="n">
-        <v>679.8982083695344</v>
+        <v>679.8982083695346</v>
       </c>
       <c r="M35" t="n">
-        <v>756.5177591709329</v>
+        <v>756.517759170933</v>
       </c>
       <c r="N35" t="n">
-        <v>768.7590074292854</v>
+        <v>768.7590074292855</v>
       </c>
       <c r="O35" t="n">
-        <v>725.9173312765387</v>
+        <v>725.9173312765389</v>
       </c>
       <c r="P35" t="n">
-        <v>619.5536475535035</v>
+        <v>619.5536475535037</v>
       </c>
       <c r="Q35" t="n">
-        <v>465.2589873679359</v>
+        <v>465.258987367936</v>
       </c>
       <c r="R35" t="n">
         <v>270.6376809181615</v>
       </c>
       <c r="S35" t="n">
-        <v>98.17771920359151</v>
+        <v>98.17771920359154</v>
       </c>
       <c r="T35" t="n">
         <v>18.86003141256047</v>
@@ -33727,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.305198499107501</v>
+        <v>2.305198499107502</v>
       </c>
       <c r="H36" t="n">
         <v>22.26336445190666</v>
       </c>
       <c r="I36" t="n">
-        <v>79.36757990348195</v>
+        <v>79.36757990348198</v>
       </c>
       <c r="J36" t="n">
         <v>217.7907055669943</v>
@@ -33742,19 +33742,19 @@
         <v>372.2390050071969</v>
       </c>
       <c r="L36" t="n">
-        <v>500.5212793785827</v>
+        <v>500.5212793785828</v>
       </c>
       <c r="M36" t="n">
-        <v>584.0847249712294</v>
+        <v>584.0847249712297</v>
       </c>
       <c r="N36" t="n">
-        <v>599.5437096428759</v>
+        <v>599.5437096428761</v>
       </c>
       <c r="O36" t="n">
-        <v>548.4653639521255</v>
+        <v>548.4653639521256</v>
       </c>
       <c r="P36" t="n">
-        <v>440.1918081322035</v>
+        <v>440.1918081322036</v>
       </c>
       <c r="Q36" t="n">
         <v>294.256566307126</v>
@@ -33763,13 +33763,13 @@
         <v>143.1245173393237</v>
       </c>
       <c r="S36" t="n">
-        <v>42.81805106894851</v>
+        <v>42.81805106894852</v>
       </c>
       <c r="T36" t="n">
-        <v>9.291567634560495</v>
+        <v>9.291567634560497</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1516577959939146</v>
+        <v>0.1516577959939147</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,43 +33809,43 @@
         <v>1.932600985015348</v>
       </c>
       <c r="H37" t="n">
-        <v>17.18257966677283</v>
+        <v>17.18257966677284</v>
       </c>
       <c r="I37" t="n">
-        <v>58.11858234937067</v>
+        <v>58.11858234937068</v>
       </c>
       <c r="J37" t="n">
         <v>136.6348896405851</v>
       </c>
       <c r="K37" t="n">
-        <v>224.5330962590558</v>
+        <v>224.5330962590559</v>
       </c>
       <c r="L37" t="n">
-        <v>287.3250591721909</v>
+        <v>287.3250591721911</v>
       </c>
       <c r="M37" t="n">
-        <v>302.9439889510876</v>
+        <v>302.9439889510877</v>
       </c>
       <c r="N37" t="n">
         <v>295.7406580069398</v>
       </c>
       <c r="O37" t="n">
-        <v>273.1643646819876</v>
+        <v>273.1643646819877</v>
       </c>
       <c r="P37" t="n">
         <v>233.7393045876744</v>
       </c>
       <c r="Q37" t="n">
-        <v>161.8289788452397</v>
+        <v>161.8289788452398</v>
       </c>
       <c r="R37" t="n">
-        <v>86.89676792623554</v>
+        <v>86.89676792623555</v>
       </c>
       <c r="S37" t="n">
-        <v>33.67996443885837</v>
+        <v>33.67996443885838</v>
       </c>
       <c r="T37" t="n">
-        <v>8.257476935974667</v>
+        <v>8.257476935974669</v>
       </c>
       <c r="U37" t="n">
         <v>0.1054145991826555</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.308402378654588</v>
+        <v>4.308402378654589</v>
       </c>
       <c r="H38" t="n">
-        <v>44.12342586039631</v>
+        <v>44.12342586039632</v>
       </c>
       <c r="I38" t="n">
         <v>166.0996827030812</v>
       </c>
       <c r="J38" t="n">
-        <v>365.6702663853351</v>
+        <v>365.6702663853352</v>
       </c>
       <c r="K38" t="n">
-        <v>548.0449390737839</v>
+        <v>548.044939073784</v>
       </c>
       <c r="L38" t="n">
-        <v>679.8982083695344</v>
+        <v>679.8982083695346</v>
       </c>
       <c r="M38" t="n">
-        <v>756.5177591709329</v>
+        <v>756.517759170933</v>
       </c>
       <c r="N38" t="n">
-        <v>768.7590074292854</v>
+        <v>768.7590074292855</v>
       </c>
       <c r="O38" t="n">
-        <v>725.9173312765387</v>
+        <v>725.9173312765389</v>
       </c>
       <c r="P38" t="n">
-        <v>619.5536475535035</v>
+        <v>619.5536475535037</v>
       </c>
       <c r="Q38" t="n">
-        <v>465.2589873679359</v>
+        <v>465.258987367936</v>
       </c>
       <c r="R38" t="n">
         <v>270.6376809181615</v>
       </c>
       <c r="S38" t="n">
-        <v>98.17771920359151</v>
+        <v>98.17771920359154</v>
       </c>
       <c r="T38" t="n">
         <v>18.86003141256047</v>
@@ -33964,13 +33964,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.305198499107501</v>
+        <v>2.305198499107502</v>
       </c>
       <c r="H39" t="n">
         <v>22.26336445190666</v>
       </c>
       <c r="I39" t="n">
-        <v>79.36757990348195</v>
+        <v>79.36757990348198</v>
       </c>
       <c r="J39" t="n">
         <v>217.7907055669943</v>
@@ -33979,19 +33979,19 @@
         <v>372.2390050071969</v>
       </c>
       <c r="L39" t="n">
-        <v>500.5212793785827</v>
+        <v>500.5212793785828</v>
       </c>
       <c r="M39" t="n">
-        <v>584.0847249712294</v>
+        <v>584.0847249712297</v>
       </c>
       <c r="N39" t="n">
-        <v>599.5437096428759</v>
+        <v>599.5437096428761</v>
       </c>
       <c r="O39" t="n">
-        <v>548.4653639521255</v>
+        <v>548.4653639521256</v>
       </c>
       <c r="P39" t="n">
-        <v>440.1918081322035</v>
+        <v>440.1918081322036</v>
       </c>
       <c r="Q39" t="n">
         <v>294.256566307126</v>
@@ -34000,13 +34000,13 @@
         <v>143.1245173393237</v>
       </c>
       <c r="S39" t="n">
-        <v>42.81805106894851</v>
+        <v>42.81805106894852</v>
       </c>
       <c r="T39" t="n">
-        <v>9.291567634560495</v>
+        <v>9.291567634560497</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1516577959939146</v>
+        <v>0.1516577959939147</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,43 +34046,43 @@
         <v>1.932600985015348</v>
       </c>
       <c r="H40" t="n">
-        <v>17.18257966677283</v>
+        <v>17.18257966677284</v>
       </c>
       <c r="I40" t="n">
-        <v>58.11858234937067</v>
+        <v>58.11858234937068</v>
       </c>
       <c r="J40" t="n">
         <v>136.6348896405851</v>
       </c>
       <c r="K40" t="n">
-        <v>224.5330962590558</v>
+        <v>224.5330962590559</v>
       </c>
       <c r="L40" t="n">
-        <v>287.3250591721909</v>
+        <v>287.3250591721911</v>
       </c>
       <c r="M40" t="n">
-        <v>302.9439889510876</v>
+        <v>302.9439889510877</v>
       </c>
       <c r="N40" t="n">
         <v>295.7406580069398</v>
       </c>
       <c r="O40" t="n">
-        <v>273.1643646819876</v>
+        <v>273.1643646819877</v>
       </c>
       <c r="P40" t="n">
         <v>233.7393045876744</v>
       </c>
       <c r="Q40" t="n">
-        <v>161.8289788452397</v>
+        <v>161.8289788452398</v>
       </c>
       <c r="R40" t="n">
-        <v>86.89676792623554</v>
+        <v>86.89676792623555</v>
       </c>
       <c r="S40" t="n">
-        <v>33.67996443885837</v>
+        <v>33.67996443885838</v>
       </c>
       <c r="T40" t="n">
-        <v>8.257476935974667</v>
+        <v>8.257476935974669</v>
       </c>
       <c r="U40" t="n">
         <v>0.1054145991826555</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.308402378654588</v>
+        <v>4.308402378654589</v>
       </c>
       <c r="H41" t="n">
-        <v>44.12342586039631</v>
+        <v>44.12342586039632</v>
       </c>
       <c r="I41" t="n">
         <v>166.0996827030812</v>
       </c>
       <c r="J41" t="n">
-        <v>365.6702663853351</v>
+        <v>365.6702663853352</v>
       </c>
       <c r="K41" t="n">
-        <v>548.0449390737839</v>
+        <v>548.044939073784</v>
       </c>
       <c r="L41" t="n">
-        <v>679.8982083695344</v>
+        <v>679.8982083695346</v>
       </c>
       <c r="M41" t="n">
-        <v>756.5177591709329</v>
+        <v>756.517759170933</v>
       </c>
       <c r="N41" t="n">
-        <v>768.7590074292854</v>
+        <v>768.7590074292855</v>
       </c>
       <c r="O41" t="n">
-        <v>725.9173312765387</v>
+        <v>725.9173312765389</v>
       </c>
       <c r="P41" t="n">
-        <v>619.5536475535035</v>
+        <v>619.5536475535037</v>
       </c>
       <c r="Q41" t="n">
-        <v>465.2589873679359</v>
+        <v>465.258987367936</v>
       </c>
       <c r="R41" t="n">
         <v>270.6376809181615</v>
       </c>
       <c r="S41" t="n">
-        <v>98.17771920359151</v>
+        <v>98.17771920359154</v>
       </c>
       <c r="T41" t="n">
         <v>18.86003141256047</v>
@@ -34201,13 +34201,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.305198499107501</v>
+        <v>2.305198499107502</v>
       </c>
       <c r="H42" t="n">
         <v>22.26336445190666</v>
       </c>
       <c r="I42" t="n">
-        <v>79.36757990348195</v>
+        <v>79.36757990348198</v>
       </c>
       <c r="J42" t="n">
         <v>217.7907055669943</v>
@@ -34216,19 +34216,19 @@
         <v>372.2390050071969</v>
       </c>
       <c r="L42" t="n">
-        <v>500.5212793785827</v>
+        <v>500.5212793785828</v>
       </c>
       <c r="M42" t="n">
-        <v>584.0847249712294</v>
+        <v>584.0847249712297</v>
       </c>
       <c r="N42" t="n">
-        <v>599.5437096428759</v>
+        <v>599.5437096428761</v>
       </c>
       <c r="O42" t="n">
-        <v>548.4653639521255</v>
+        <v>548.4653639521256</v>
       </c>
       <c r="P42" t="n">
-        <v>440.1918081322035</v>
+        <v>440.1918081322036</v>
       </c>
       <c r="Q42" t="n">
         <v>294.256566307126</v>
@@ -34237,13 +34237,13 @@
         <v>143.1245173393237</v>
       </c>
       <c r="S42" t="n">
-        <v>42.81805106894851</v>
+        <v>42.81805106894852</v>
       </c>
       <c r="T42" t="n">
-        <v>9.291567634560495</v>
+        <v>9.291567634560497</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1516577959939146</v>
+        <v>0.1516577959939147</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,43 +34283,43 @@
         <v>1.932600985015348</v>
       </c>
       <c r="H43" t="n">
-        <v>17.18257966677283</v>
+        <v>17.18257966677284</v>
       </c>
       <c r="I43" t="n">
-        <v>58.11858234937067</v>
+        <v>58.11858234937068</v>
       </c>
       <c r="J43" t="n">
         <v>136.6348896405851</v>
       </c>
       <c r="K43" t="n">
-        <v>224.5330962590558</v>
+        <v>224.5330962590559</v>
       </c>
       <c r="L43" t="n">
-        <v>287.3250591721909</v>
+        <v>287.3250591721911</v>
       </c>
       <c r="M43" t="n">
-        <v>302.9439889510876</v>
+        <v>302.9439889510877</v>
       </c>
       <c r="N43" t="n">
         <v>295.7406580069398</v>
       </c>
       <c r="O43" t="n">
-        <v>273.1643646819876</v>
+        <v>273.1643646819877</v>
       </c>
       <c r="P43" t="n">
         <v>233.7393045876744</v>
       </c>
       <c r="Q43" t="n">
-        <v>161.8289788452397</v>
+        <v>161.8289788452398</v>
       </c>
       <c r="R43" t="n">
-        <v>86.89676792623554</v>
+        <v>86.89676792623555</v>
       </c>
       <c r="S43" t="n">
-        <v>33.67996443885837</v>
+        <v>33.67996443885838</v>
       </c>
       <c r="T43" t="n">
-        <v>8.257476935974667</v>
+        <v>8.257476935974669</v>
       </c>
       <c r="U43" t="n">
         <v>0.1054145991826555</v>
@@ -34783,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34792,10 +34792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35029,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>90.9530789003276</v>
+        <v>143.1094418116533</v>
       </c>
       <c r="K12" t="n">
-        <v>286.5539289441637</v>
+        <v>234.3975660328379</v>
       </c>
       <c r="L12" t="n">
         <v>361.9668995987086</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>143.1094418116533</v>
+        <v>90.9530789003276</v>
       </c>
       <c r="K15" t="n">
         <v>234.3975660328379</v>
@@ -35746,7 +35746,7 @@
         <v>306.2174007178733</v>
       </c>
       <c r="Q15" t="n">
-        <v>154.2747922211045</v>
+        <v>206.4311551324303</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>184.6243618586489</v>
+        <v>353.7209770307227</v>
       </c>
       <c r="K17" t="n">
-        <v>652.1005005999682</v>
+        <v>327.9550880288035</v>
       </c>
       <c r="L17" t="n">
         <v>861.7930079499978</v>
       </c>
       <c r="M17" t="n">
-        <v>975.6850594364928</v>
+        <v>526.1715259436603</v>
       </c>
       <c r="N17" t="n">
-        <v>539.3459438326945</v>
+        <v>976.6928682446787</v>
       </c>
       <c r="O17" t="n">
-        <v>769.904507229835</v>
+        <v>876.6193011175975</v>
       </c>
       <c r="P17" t="n">
         <v>388.3206517982341</v>
       </c>
       <c r="Q17" t="n">
-        <v>242.9532974934865</v>
+        <v>303.4539100856635</v>
       </c>
       <c r="R17" t="n">
         <v>120.7685629770119</v>
@@ -35974,7 +35974,7 @@
         <v>441.9506910492113</v>
       </c>
       <c r="N18" t="n">
-        <v>520.3583604708685</v>
+        <v>468.2019975595429</v>
       </c>
       <c r="O18" t="n">
         <v>405.8691195076811</v>
@@ -35983,7 +35983,7 @@
         <v>306.2174007178733</v>
       </c>
       <c r="Q18" t="n">
-        <v>154.2747922211045</v>
+        <v>206.4311551324303</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>184.6243618586489</v>
       </c>
       <c r="K20" t="n">
-        <v>652.1005005999682</v>
+        <v>327.9550880288035</v>
       </c>
       <c r="L20" t="n">
         <v>861.7930079499978</v>
       </c>
       <c r="M20" t="n">
-        <v>934.6866854217117</v>
+        <v>975.6850594364928</v>
       </c>
       <c r="N20" t="n">
-        <v>539.3459438326945</v>
+        <v>976.6928682446787</v>
       </c>
       <c r="O20" t="n">
-        <v>876.6193011175975</v>
+        <v>495.8191198548521</v>
       </c>
       <c r="P20" t="n">
         <v>388.3206517982341</v>
       </c>
       <c r="Q20" t="n">
-        <v>242.9532974934865</v>
+        <v>403.8371730276493</v>
       </c>
       <c r="R20" t="n">
-        <v>55.05214310402943</v>
+        <v>120.7685629770119</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>90.9530789003276</v>
+        <v>143.1094418116533</v>
       </c>
       <c r="K21" t="n">
         <v>234.3975660328379</v>
@@ -36211,7 +36211,7 @@
         <v>441.9506910492113</v>
       </c>
       <c r="N21" t="n">
-        <v>520.3583604708685</v>
+        <v>468.2019975595429</v>
       </c>
       <c r="O21" t="n">
         <v>405.8691195076811</v>
@@ -36360,28 +36360,28 @@
         <v>184.6243618586489</v>
       </c>
       <c r="K23" t="n">
-        <v>652.1005005999682</v>
+        <v>327.9550880288035</v>
       </c>
       <c r="L23" t="n">
-        <v>444.1317933995473</v>
+        <v>861.7930079499978</v>
       </c>
       <c r="M23" t="n">
-        <v>526.1715259436603</v>
+        <v>975.6850594364928</v>
       </c>
       <c r="N23" t="n">
         <v>976.6928682446787</v>
       </c>
       <c r="O23" t="n">
-        <v>665.6186320297462</v>
+        <v>722.4194152619971</v>
       </c>
       <c r="P23" t="n">
-        <v>710.1193599697167</v>
+        <v>388.3206517982341</v>
       </c>
       <c r="Q23" t="n">
-        <v>455.2682881533912</v>
+        <v>242.9532974934865</v>
       </c>
       <c r="R23" t="n">
-        <v>120.7685629770119</v>
+        <v>55.05214310402943</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>90.9530789003276</v>
+        <v>143.1094418116533</v>
       </c>
       <c r="K24" t="n">
         <v>234.3975660328379</v>
@@ -36448,7 +36448,7 @@
         <v>441.9506910492113</v>
       </c>
       <c r="N24" t="n">
-        <v>520.3583604708685</v>
+        <v>468.2019975595429</v>
       </c>
       <c r="O24" t="n">
         <v>405.8691195076811</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>324.2777875275571</v>
+        <v>184.6243618586489</v>
       </c>
       <c r="K26" t="n">
-        <v>652.1005005999682</v>
+        <v>327.9550880288035</v>
       </c>
       <c r="L26" t="n">
         <v>861.7930079499978</v>
       </c>
       <c r="M26" t="n">
-        <v>526.1715259436603</v>
+        <v>975.6850594364928</v>
       </c>
       <c r="N26" t="n">
         <v>976.6928682446787</v>
       </c>
       <c r="O26" t="n">
-        <v>495.8191198548521</v>
+        <v>722.4194152619971</v>
       </c>
       <c r="P26" t="n">
         <v>388.3206517982341</v>
       </c>
       <c r="Q26" t="n">
-        <v>455.2682881533912</v>
+        <v>242.9532974934865</v>
       </c>
       <c r="R26" t="n">
         <v>55.05214310402943</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>90.9530789003276</v>
+        <v>143.1094418116533</v>
       </c>
       <c r="K27" t="n">
         <v>234.3975660328379</v>
@@ -36682,7 +36682,7 @@
         <v>361.9668995987086</v>
       </c>
       <c r="M27" t="n">
-        <v>494.107053960537</v>
+        <v>441.9506910492113</v>
       </c>
       <c r="N27" t="n">
         <v>468.2019975595429</v>
@@ -36834,19 +36834,19 @@
         <v>184.6243618586489</v>
       </c>
       <c r="K29" t="n">
-        <v>554.5553834359483</v>
+        <v>327.9550880288035</v>
       </c>
       <c r="L29" t="n">
         <v>861.7930079499978</v>
       </c>
       <c r="M29" t="n">
-        <v>975.6850594364928</v>
+        <v>821.4851735808923</v>
       </c>
       <c r="N29" t="n">
         <v>976.6928682446787</v>
       </c>
       <c r="O29" t="n">
-        <v>495.8191198548521</v>
+        <v>876.6193011175975</v>
       </c>
       <c r="P29" t="n">
         <v>388.3206517982341</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>90.9530789003276</v>
+        <v>143.1094418116533</v>
       </c>
       <c r="K30" t="n">
         <v>234.3975660328379</v>
@@ -36922,7 +36922,7 @@
         <v>441.9506910492113</v>
       </c>
       <c r="N30" t="n">
-        <v>520.3583604708685</v>
+        <v>468.2019975595429</v>
       </c>
       <c r="O30" t="n">
         <v>405.8691195076811</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>353.7209770307227</v>
+        <v>184.6243618586489</v>
       </c>
       <c r="K32" t="n">
         <v>327.9550880288035</v>
       </c>
       <c r="L32" t="n">
-        <v>538.4965069223235</v>
+        <v>861.7930079499978</v>
       </c>
       <c r="M32" t="n">
         <v>975.6850594364928</v>
@@ -37083,7 +37083,7 @@
         <v>976.6928682446787</v>
       </c>
       <c r="O32" t="n">
-        <v>876.6193011175975</v>
+        <v>656.7029953890155</v>
       </c>
       <c r="P32" t="n">
         <v>388.3206517982341</v>
@@ -37092,7 +37092,7 @@
         <v>242.9532974934865</v>
       </c>
       <c r="R32" t="n">
-        <v>55.05214310402943</v>
+        <v>120.7685629770119</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>90.9530789003276</v>
+        <v>143.1094418116533</v>
       </c>
       <c r="K33" t="n">
         <v>234.3975660328379</v>
@@ -37162,7 +37162,7 @@
         <v>468.2019975595429</v>
       </c>
       <c r="O33" t="n">
-        <v>458.0254824190071</v>
+        <v>405.8691195076811</v>
       </c>
       <c r="P33" t="n">
         <v>306.2174007178733</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>353.7209770307226</v>
+        <v>353.7209770307227</v>
       </c>
       <c r="K35" t="n">
-        <v>652.1005005999681</v>
+        <v>652.1005005999682</v>
       </c>
       <c r="L35" t="n">
-        <v>444.1317933995471</v>
+        <v>444.1317933995473</v>
       </c>
       <c r="M35" t="n">
-        <v>526.1715259436602</v>
+        <v>526.1715259436603</v>
       </c>
       <c r="N35" t="n">
-        <v>662.3120038577387</v>
+        <v>596.5955839847556</v>
       </c>
       <c r="O35" t="n">
-        <v>876.6193011175973</v>
+        <v>876.6193011175975</v>
       </c>
       <c r="P35" t="n">
         <v>710.1193599697167</v>
       </c>
       <c r="Q35" t="n">
-        <v>455.2682881533911</v>
+        <v>455.2682881533912</v>
       </c>
       <c r="R35" t="n">
-        <v>55.05214310402937</v>
+        <v>120.7685629770119</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>90.95307890032757</v>
+        <v>143.1094418116532</v>
       </c>
       <c r="K36" t="n">
-        <v>286.5539289441641</v>
+        <v>234.3975660328379</v>
       </c>
       <c r="L36" t="n">
         <v>361.9668995987086</v>
       </c>
       <c r="M36" t="n">
-        <v>441.9506910492111</v>
+        <v>441.9506910492113</v>
       </c>
       <c r="N36" t="n">
-        <v>468.2019975595426</v>
+        <v>468.2019975595429</v>
       </c>
       <c r="O36" t="n">
-        <v>405.869119507681</v>
+        <v>405.8691195076811</v>
       </c>
       <c r="P36" t="n">
         <v>306.2174007178733</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.27570952391233</v>
+        <v>43.27570952391235</v>
       </c>
       <c r="K37" t="n">
         <v>202.263604433173</v>
       </c>
       <c r="L37" t="n">
-        <v>314.9150844325071</v>
+        <v>314.9150844325072</v>
       </c>
       <c r="M37" t="n">
-        <v>342.5278659129282</v>
+        <v>342.5278659129283</v>
       </c>
       <c r="N37" t="n">
         <v>339.8728303861684</v>
       </c>
       <c r="O37" t="n">
-        <v>297.7494925960273</v>
+        <v>297.7494925960327</v>
       </c>
       <c r="P37" t="n">
-        <v>231.0178638525678</v>
+        <v>231.0178638525679</v>
       </c>
       <c r="Q37" t="n">
-        <v>75.66693559354968</v>
+        <v>75.6669355935454</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>353.7209770307226</v>
+        <v>353.7209770307227</v>
       </c>
       <c r="K38" t="n">
-        <v>327.9550880288033</v>
+        <v>652.1005005999682</v>
       </c>
       <c r="L38" t="n">
-        <v>706.9816975251675</v>
+        <v>501.3814335516064</v>
       </c>
       <c r="M38" t="n">
-        <v>975.6850594364927</v>
+        <v>526.1715259436603</v>
       </c>
       <c r="N38" t="n">
-        <v>976.6928682446786</v>
+        <v>539.3459438326945</v>
       </c>
       <c r="O38" t="n">
-        <v>495.8191198548519</v>
+        <v>876.6193011175975</v>
       </c>
       <c r="P38" t="n">
-        <v>388.320651798234</v>
+        <v>710.1193599697167</v>
       </c>
       <c r="Q38" t="n">
-        <v>455.2682881533911</v>
+        <v>455.2682881533912</v>
       </c>
       <c r="R38" t="n">
-        <v>55.05214310402937</v>
+        <v>120.7685629770119</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>90.95307890032757</v>
+        <v>143.1094418116533</v>
       </c>
       <c r="K39" t="n">
         <v>234.3975660328379</v>
       </c>
       <c r="L39" t="n">
-        <v>414.1232625100349</v>
+        <v>361.9668995987086</v>
       </c>
       <c r="M39" t="n">
-        <v>441.9506910492111</v>
+        <v>441.9506910492113</v>
       </c>
       <c r="N39" t="n">
-        <v>468.2019975595426</v>
+        <v>468.2019975595429</v>
       </c>
       <c r="O39" t="n">
-        <v>405.869119507681</v>
+        <v>405.8691195076811</v>
       </c>
       <c r="P39" t="n">
         <v>306.2174007178733</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.27570952391233</v>
+        <v>43.27570952391235</v>
       </c>
       <c r="K40" t="n">
         <v>202.263604433173</v>
       </c>
       <c r="L40" t="n">
-        <v>314.9150844325071</v>
+        <v>314.9150844325072</v>
       </c>
       <c r="M40" t="n">
-        <v>342.5278659129282</v>
+        <v>342.5278659129283</v>
       </c>
       <c r="N40" t="n">
-        <v>339.8728303861733</v>
+        <v>339.8728303861684</v>
       </c>
       <c r="O40" t="n">
-        <v>297.7494925960273</v>
+        <v>297.7494925960274</v>
       </c>
       <c r="P40" t="n">
-        <v>231.0178638525678</v>
+        <v>231.0178638525679</v>
       </c>
       <c r="Q40" t="n">
-        <v>75.66693559354535</v>
+        <v>75.6669355935454</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>184.6243618586489</v>
       </c>
       <c r="K41" t="n">
-        <v>327.9550880288033</v>
+        <v>327.9550880288035</v>
       </c>
       <c r="L41" t="n">
-        <v>444.1317933995471</v>
+        <v>444.1317933995473</v>
       </c>
       <c r="M41" t="n">
-        <v>526.1715259436602</v>
+        <v>526.1715259436603</v>
       </c>
       <c r="N41" t="n">
         <v>539.3459438326945</v>
       </c>
       <c r="O41" t="n">
-        <v>495.8191198548519</v>
+        <v>495.8191198548521</v>
       </c>
       <c r="P41" t="n">
-        <v>388.320651798235</v>
+        <v>388.3206517982341</v>
       </c>
       <c r="Q41" t="n">
-        <v>242.9532974934864</v>
+        <v>242.9532974934865</v>
       </c>
       <c r="R41" t="n">
-        <v>55.05214310402937</v>
+        <v>55.05214310402943</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>90.95307890032757</v>
+        <v>143.1094418116533</v>
       </c>
       <c r="K42" t="n">
         <v>234.3975660328379</v>
@@ -37867,16 +37867,16 @@
         <v>361.9668995987086</v>
       </c>
       <c r="M42" t="n">
-        <v>441.9506910492111</v>
+        <v>441.9506910492113</v>
       </c>
       <c r="N42" t="n">
-        <v>468.2019975595426</v>
+        <v>468.2019975595429</v>
       </c>
       <c r="O42" t="n">
-        <v>405.869119507681</v>
+        <v>405.8691195076811</v>
       </c>
       <c r="P42" t="n">
-        <v>358.3737636291999</v>
+        <v>306.2174007178733</v>
       </c>
       <c r="Q42" t="n">
         <v>154.2747922211045</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>43.27570952391233</v>
+        <v>43.27570952391235</v>
       </c>
       <c r="K43" t="n">
         <v>202.263604433173</v>
       </c>
       <c r="L43" t="n">
-        <v>314.9150844325071</v>
+        <v>314.9150844325072</v>
       </c>
       <c r="M43" t="n">
-        <v>342.5278659129282</v>
+        <v>342.5278659129283</v>
       </c>
       <c r="N43" t="n">
         <v>339.8728303861684</v>
       </c>
       <c r="O43" t="n">
-        <v>297.7494925960273</v>
+        <v>297.7494925960274</v>
       </c>
       <c r="P43" t="n">
-        <v>231.0178638525678</v>
+        <v>231.0178638525679</v>
       </c>
       <c r="Q43" t="n">
-        <v>75.66693559354535</v>
+        <v>75.6669355935454</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>361.9668995987086</v>
       </c>
       <c r="M45" t="n">
-        <v>494.1070539605378</v>
+        <v>441.9506910492111</v>
       </c>
       <c r="N45" t="n">
         <v>468.2019975595426</v>
@@ -38116,7 +38116,7 @@
         <v>306.2174007178733</v>
       </c>
       <c r="Q45" t="n">
-        <v>154.2747922211045</v>
+        <v>206.4311551324312</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
